--- a/Thời gian thao tác.xlsx
+++ b/Thời gian thao tác.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5B960D-F454-8841-849C-680AF9B0F0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8130"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
-    <sheet name="Topic 1" sheetId="1" r:id="rId2"/>
-    <sheet name="Topic 2" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet1 (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="Topic 1" sheetId="1" r:id="rId3"/>
+    <sheet name="Pareto" sheetId="5" r:id="rId4"/>
+    <sheet name="Topic 2" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="101">
   <si>
     <t>-</t>
   </si>
@@ -237,9 +250,6 @@
     <t>Tổng số bảng MPB</t>
   </si>
   <si>
-    <t>Giơ công chuyển đổi bảng(MH)</t>
-  </si>
-  <si>
     <t>Jan</t>
   </si>
   <si>
@@ -274,16 +284,70 @@
   </si>
   <si>
     <t>Dec</t>
+  </si>
+  <si>
+    <t>Khác</t>
+  </si>
+  <si>
+    <t>Giờ công chuyển đổi bảng(MH)</t>
+  </si>
+  <si>
+    <t>Hạng mục</t>
+  </si>
+  <si>
+    <t>Giờ công(MH)</t>
+  </si>
+  <si>
+    <t>Giờ công tích luỹ(MH)</t>
+  </si>
+  <si>
+    <t>Tỷ suất kũy tích</t>
+  </si>
+  <si>
+    <t>Tìm bảng</t>
+  </si>
+  <si>
+    <t>Trước cải thiện</t>
+  </si>
+  <si>
+    <t>Sau cải thiện</t>
+  </si>
+  <si>
+    <t>chuyển đổi &amp;BD</t>
+  </si>
+  <si>
+    <t>Kiểm tra bộ dậy ĐN</t>
+  </si>
+  <si>
+    <t>Kiểm kê master</t>
+  </si>
+  <si>
+    <t>Di chuyển xe</t>
+  </si>
+  <si>
+    <t>Ghi ký lục</t>
+  </si>
+  <si>
+    <t>Đổi bảng</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>11.67</t>
+  </si>
+  <si>
+    <t>36.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +379,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -507,11 +578,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -540,9 +612,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -558,14 +627,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -579,13 +642,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -603,7 +666,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -615,11 +678,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -639,12 +699,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -653,6 +707,32 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -684,28 +764,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_2.１０上期　改善フォロー表(生管)" xfId="1"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="標準_2.１０上期　改善フォロー表(生管)" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -718,6 +784,4158 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Giờ công chuyển đổi bảng MPB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30742773974687465"/>
+          <c:y val="7.2398190045248875E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-VN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.3198200492791998E-2"/>
+          <c:y val="0.27817147856517938"/>
+          <c:w val="0.88370646288812948"/>
+          <c:h val="0.43131816856226307"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tổng số bảng MPB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$C$9:$T$10</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="18"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Apr</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Jun</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Jul</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Aug</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Sep</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Oct</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Nov</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Dec</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Feb</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Mar</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Apr</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Jun</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Jul</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Aug</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Sep</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$11:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6680-8A4B-B1BC-A3BBBEFD83BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>số lần chuyển đổi MPB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$C$9:$T$10</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="18"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Apr</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Jun</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Jul</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Aug</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Sep</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Oct</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Nov</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Dec</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Feb</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Mar</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Apr</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Jun</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Jul</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Aug</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Sep</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$12:$T$12</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6680-8A4B-B1BC-A3BBBEFD83BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="67"/>
+        <c:axId val="294912320"/>
+        <c:axId val="295001216"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Giờ công chuyển đổi bảng(MH)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$C$9:$T$10</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="18"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Apr</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Jun</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Jul</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Aug</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Sep</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Oct</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Nov</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Dec</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Feb</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Mar</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Apr</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Jun</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Jul</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Aug</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Sep</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$13:$T$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>11.316666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.801666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.741666666666665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.298333333333332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.106666666666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.076666666666664</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.046666666666663</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.693333333333332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.783333333333331</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.016666666666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.986666666666665</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.794999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.956666666666663</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.573333333333331</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.734999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6680-8A4B-B1BC-A3BBBEFD83BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="401228480"/>
+        <c:axId val="401110960"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="294912320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Tổng số bảng</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.0832535514468641E-3"/>
+              <c:y val="0.17048526739587413"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-VN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="295001216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="295001216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="294912320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="50"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="401110960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="401228480"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="401228480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="002060"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:srgbClr val="002060"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Giờ công (MH)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.89119526178604436"/>
+              <c:y val="0.17953504115153032"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="002060"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-VN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="401110960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-VN"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-VN"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-VN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-VN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13439146336216171"/>
+          <c:y val="6.9444444444444448E-2"/>
+          <c:w val="0.83907043586764785"/>
+          <c:h val="0.54222222222222227"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tổng số bảng MPB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Sheet1 (2)'!$C$9:$T$10</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="18"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Apr</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Jun</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Jul</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Aug</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Sep</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Oct</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Nov</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Dec</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Feb</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Mar</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Apr</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Jun</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Jul</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Aug</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Sep</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$11:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>190</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA02-CA41-A733-69CBBDD85579}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>số lần chuyển đổi MPB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Sheet1 (2)'!$C$9:$T$10</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="18"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Apr</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Jun</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Jul</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Aug</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Sep</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Oct</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Nov</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Dec</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Feb</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Mar</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Apr</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Jun</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Jul</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Aug</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Sep</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$12:$T$12</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FA02-CA41-A733-69CBBDD85579}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="67"/>
+        <c:axId val="124845680"/>
+        <c:axId val="124847392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="124845680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="124847392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="124847392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg2">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000">
+                    <a:solidFill>
+                      <a:schemeClr val="bg2">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Tổng số bảng MPB</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="5.8926773497575101E-2"/>
+              <c:y val="0.11"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg2">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-VN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="124845680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="50"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-VN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Mối tương quan giữa giờ công chuyển đổi bảng &amp; số lượng bảng MPB </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14509354232437013"/>
+          <c:y val="8.7962962962962965E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-VN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13330929772623976"/>
+          <c:y val="0.39143450563169169"/>
+          <c:w val="0.83703243201470046"/>
+          <c:h val="0.54222222222222227"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>số lần chuyển đổi MPB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-VN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Sheet1 (2)'!$C$9:$T$10</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="18"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Apr</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Jun</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Jul</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Aug</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Sep</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Oct</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Nov</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Dec</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Feb</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Mar</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Apr</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Jun</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Jul</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Aug</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Sep</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$12:$T$12</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3BA1-AF47-8465-B8DFE1F922A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="67"/>
+        <c:axId val="124845680"/>
+        <c:axId val="124847392"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Giờ công chuyển đổi bảng(MH)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Sheet1 (2)'!$C$9:$T$10</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="18"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Apr</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Jun</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Jul</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Aug</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Sep</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Oct</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Nov</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Dec</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Feb</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Mar</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Apr</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Jun</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Jul</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Aug</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Sep</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$13:$T$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>11.316666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.801666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.741666666666665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.298333333333332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.106666666666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.076666666666664</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.046666666666663</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.693333333333332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.783333333333331</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.016666666666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.986666666666665</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.794999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.956666666666663</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.573333333333331</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.734999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3BA1-AF47-8465-B8DFE1F922A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="124845680"/>
+        <c:axId val="124847392"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="124845680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124847392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="124847392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg2">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000">
+                    <a:solidFill>
+                      <a:schemeClr val="bg2">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> Giờ công</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="bg2">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000">
+                    <a:solidFill>
+                      <a:schemeClr val="bg2">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> chuyển đổi bảng(MH)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.6379795349294289E-2"/>
+              <c:y val="0.42958333333333332"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg2">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-VN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="124845680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-VN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1394280</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>187778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>259445</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>73478</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F618DB3-19B3-47E5-795C-E8F68E2F49AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="Group 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48778412-1596-D010-8456-373E09AADB5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2844800" y="3162301"/>
+          <a:ext cx="8140700" cy="5092700"/>
+          <a:chOff x="2832100" y="2971801"/>
+          <a:chExt cx="8140700" cy="5092700"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="6" name="Group 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0A5740F-9704-A024-16A3-680508680552}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2832100" y="2971801"/>
+            <a:ext cx="8140700" cy="5092700"/>
+            <a:chOff x="2832100" y="3246695"/>
+            <a:chExt cx="8140700" cy="4817805"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBFED2FD-7ECB-317A-E7B7-4D37424806EB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="2832100" y="5734050"/>
+            <a:ext cx="8140700" cy="2330450"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Chart 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C553AB8-4CE4-A748-A394-77C1AF05E5F3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks/>
+            </xdr:cNvGraphicFramePr>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="2832100" y="3246695"/>
+            <a:ext cx="8140700" cy="2481008"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Oval 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBDEB0F6-88A4-90C6-5654-6CEA3F13DE28}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7734300" y="4406900"/>
+            <a:ext cx="304800" cy="330200"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="43529"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:prstDash val="sysDash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.63495</cdr:x>
+      <cdr:y>0.65375</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.65367</cdr:x>
+      <cdr:y>0.69733</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4DCEE43-EDA6-6E34-F910-BCD9E96AA91D}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5168900" y="1714500"/>
+          <a:ext cx="152400" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.60842</cdr:x>
+      <cdr:y>0.70285</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.71919</cdr:x>
+      <cdr:y>0.8047</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE47ECE9-0325-ACAE-34D5-BA612F9AB101}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4953000" y="1843278"/>
+          <a:ext cx="901700" cy="267113"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Tet Holiday</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -982,40 +5200,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C1" s="58">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C1" s="47">
         <v>2023</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58">
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47">
         <v>2024</v>
       </c>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-    </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C2">
         <v>4</v>
       </c>
@@ -1071,7 +5289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>123</v>
       </c>
@@ -1130,161 +5348,167 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C4">
         <f>B3+C3</f>
         <v>126</v>
       </c>
       <c r="D4">
-        <f>C4+D3</f>
+        <f t="shared" ref="D4:I4" si="0">C4+D3</f>
         <v>126</v>
       </c>
       <c r="E4">
-        <f>D4+E3</f>
+        <f t="shared" si="0"/>
         <v>132</v>
       </c>
       <c r="F4">
-        <f>E4+F3</f>
+        <f t="shared" si="0"/>
         <v>135</v>
       </c>
       <c r="G4">
-        <f>F4+G3</f>
+        <f t="shared" si="0"/>
         <v>141</v>
       </c>
       <c r="H4">
-        <f>G4+H3</f>
+        <f t="shared" si="0"/>
         <v>145</v>
       </c>
       <c r="I4">
-        <f>H4+I3</f>
+        <f t="shared" si="0"/>
         <v>148</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:Q4" si="0">I4+J3</f>
+        <f t="shared" ref="J4:P4" si="1">I4+J3</f>
         <v>152</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>157</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>161</v>
       </c>
       <c r="M4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>161</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>163</v>
       </c>
       <c r="O4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
       <c r="P4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>166</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4" si="1">P4+Q3</f>
+        <f t="shared" ref="Q4" si="2">P4+Q3</f>
         <v>166</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R4" si="2">Q4+R3</f>
+        <f t="shared" ref="R4" si="3">Q4+R3</f>
         <v>169</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4" si="3">R4+S3</f>
+        <f t="shared" ref="S4" si="4">R4+S3</f>
         <v>172</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4" si="4">S4+T3</f>
+        <f t="shared" ref="T4" si="5">S4+T3</f>
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C9" s="59">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <f>9.7/60</f>
+        <v>0.16166666666666665</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C9" s="48">
         <v>2023</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="63">
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="51">
         <v>2024</v>
       </c>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="63"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C10" s="62" t="s">
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C10" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="E10" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="F10" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="62" t="s">
+      <c r="G10" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="62" t="s">
+      <c r="H10" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="62" t="s">
+      <c r="I10" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="62" t="s">
+      <c r="J10" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="62" t="s">
+      <c r="K10" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="K10" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="L10" s="62" t="s">
+      <c r="L10" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="M10" s="62" t="s">
+      <c r="N10" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="N10" s="62" t="s">
+      <c r="O10" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="O10" s="62" t="s">
+      <c r="P10" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="P10" s="62" t="s">
+      <c r="Q10" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="Q10" s="62" t="s">
+      <c r="R10" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="R10" s="62" t="s">
+      <c r="S10" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="S10" s="62" t="s">
+      <c r="T10" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="T10" s="62" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>70</v>
       </c>
@@ -1343,69 +5567,144 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>69</v>
       </c>
       <c r="C12">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D12">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F12">
         <v>90</v>
       </c>
       <c r="G12">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="H12">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="I12">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="J12">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="K12">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="L12">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="M12">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N12">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="O12">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="P12">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="Q12">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="R12">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="S12">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="T12">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>71</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C13" s="45">
+        <f>C12*$C$6</f>
+        <v>11.316666666666666</v>
+      </c>
+      <c r="D13" s="45">
+        <f t="shared" ref="D13:T13" si="6">D12*$C$6</f>
+        <v>11.801666666666666</v>
+      </c>
+      <c r="E13" s="45">
+        <f t="shared" si="6"/>
+        <v>13.741666666666665</v>
+      </c>
+      <c r="F13" s="45">
+        <f t="shared" si="6"/>
+        <v>14.549999999999999</v>
+      </c>
+      <c r="G13" s="45">
+        <f t="shared" si="6"/>
+        <v>16.166666666666664</v>
+      </c>
+      <c r="H13" s="45">
+        <f t="shared" si="6"/>
+        <v>17.298333333333332</v>
+      </c>
+      <c r="I13" s="45">
+        <f t="shared" si="6"/>
+        <v>18.106666666666666</v>
+      </c>
+      <c r="J13" s="45">
+        <f t="shared" si="6"/>
+        <v>19.076666666666664</v>
+      </c>
+      <c r="K13" s="45">
+        <f t="shared" si="6"/>
+        <v>20.046666666666663</v>
+      </c>
+      <c r="L13" s="45">
+        <f t="shared" si="6"/>
+        <v>20.693333333333332</v>
+      </c>
+      <c r="M13" s="45">
+        <f>M12*$C$6</f>
+        <v>17.783333333333331</v>
+      </c>
+      <c r="N13" s="45">
+        <f t="shared" si="6"/>
+        <v>21.016666666666666</v>
+      </c>
+      <c r="O13" s="45">
+        <f t="shared" si="6"/>
+        <v>21.986666666666665</v>
+      </c>
+      <c r="P13" s="45">
+        <f t="shared" si="6"/>
+        <v>22.794999999999998</v>
+      </c>
+      <c r="Q13" s="45">
+        <f t="shared" si="6"/>
+        <v>22.956666666666663</v>
+      </c>
+      <c r="R13" s="45">
+        <f t="shared" si="6"/>
+        <v>24.249999999999996</v>
+      </c>
+      <c r="S13" s="45">
+        <f t="shared" si="6"/>
+        <v>24.573333333333331</v>
+      </c>
+      <c r="T13" s="45">
+        <f t="shared" si="6"/>
+        <v>24.734999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S17" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1415,104 +5714,629 @@
     <mergeCell ref="O9:T9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:W36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7658DFB-B311-EE40-9903-52A8ECCC76AE}">
+  <dimension ref="B1:T17"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
-    <col min="3" max="23" width="8.85546875" style="1" customWidth="1"/>
-    <col min="24" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C1" s="47">
+        <v>2023</v>
+      </c>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47">
+        <v>2024</v>
+      </c>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>11</v>
+      </c>
+      <c r="K2">
+        <v>12</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>6</v>
+      </c>
+      <c r="R2">
+        <v>7</v>
+      </c>
+      <c r="S2">
+        <v>8</v>
+      </c>
+      <c r="T2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <f>B3+C3</f>
+        <v>126</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:T4" si="0">C4+D3</f>
+        <v>126</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>163</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <f>9.7/60</f>
+        <v>0.16166666666666665</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C9" s="48">
+        <v>2023</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="51">
+        <v>2024</v>
+      </c>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C10" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="N10" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="O10" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="R10" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="S10" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="T10" s="42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11">
+        <v>126</v>
+      </c>
+      <c r="D11">
+        <v>126</v>
+      </c>
+      <c r="E11">
+        <v>132</v>
+      </c>
+      <c r="F11">
+        <v>135</v>
+      </c>
+      <c r="G11">
+        <v>141</v>
+      </c>
+      <c r="H11">
+        <v>145</v>
+      </c>
+      <c r="I11">
+        <v>148</v>
+      </c>
+      <c r="J11">
+        <v>152</v>
+      </c>
+      <c r="K11">
+        <v>157</v>
+      </c>
+      <c r="L11">
+        <v>161</v>
+      </c>
+      <c r="M11">
+        <v>161</v>
+      </c>
+      <c r="N11">
+        <v>163</v>
+      </c>
+      <c r="O11">
+        <v>165</v>
+      </c>
+      <c r="P11">
+        <v>166</v>
+      </c>
+      <c r="Q11">
+        <v>170</v>
+      </c>
+      <c r="R11">
+        <v>176</v>
+      </c>
+      <c r="S11">
+        <v>183</v>
+      </c>
+      <c r="T11">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12">
+        <v>70</v>
+      </c>
+      <c r="D12">
+        <v>73</v>
+      </c>
+      <c r="E12">
+        <v>85</v>
+      </c>
+      <c r="F12">
+        <v>90</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>107</v>
+      </c>
+      <c r="I12">
+        <v>112</v>
+      </c>
+      <c r="J12">
+        <v>118</v>
+      </c>
+      <c r="K12">
+        <v>124</v>
+      </c>
+      <c r="L12">
+        <v>128</v>
+      </c>
+      <c r="M12">
+        <v>110</v>
+      </c>
+      <c r="N12">
+        <v>130</v>
+      </c>
+      <c r="O12">
+        <v>136</v>
+      </c>
+      <c r="P12">
+        <v>141</v>
+      </c>
+      <c r="Q12">
+        <v>142</v>
+      </c>
+      <c r="R12">
+        <v>150</v>
+      </c>
+      <c r="S12">
+        <v>152</v>
+      </c>
+      <c r="T12">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="45">
+        <f>C12*$C$6</f>
+        <v>11.316666666666666</v>
+      </c>
+      <c r="D13" s="45">
+        <f t="shared" ref="D13:T13" si="1">D12*$C$6</f>
+        <v>11.801666666666666</v>
+      </c>
+      <c r="E13" s="45">
+        <f t="shared" si="1"/>
+        <v>13.741666666666665</v>
+      </c>
+      <c r="F13" s="45">
+        <f t="shared" si="1"/>
+        <v>14.549999999999999</v>
+      </c>
+      <c r="G13" s="45">
+        <f t="shared" si="1"/>
+        <v>16.166666666666664</v>
+      </c>
+      <c r="H13" s="45">
+        <f t="shared" si="1"/>
+        <v>17.298333333333332</v>
+      </c>
+      <c r="I13" s="45">
+        <f t="shared" si="1"/>
+        <v>18.106666666666666</v>
+      </c>
+      <c r="J13" s="45">
+        <f t="shared" si="1"/>
+        <v>19.076666666666664</v>
+      </c>
+      <c r="K13" s="45">
+        <f t="shared" si="1"/>
+        <v>20.046666666666663</v>
+      </c>
+      <c r="L13" s="45">
+        <f t="shared" si="1"/>
+        <v>20.693333333333332</v>
+      </c>
+      <c r="M13" s="45">
+        <f>M12*$C$6</f>
+        <v>17.783333333333331</v>
+      </c>
+      <c r="N13" s="45">
+        <f t="shared" si="1"/>
+        <v>21.016666666666666</v>
+      </c>
+      <c r="O13" s="45">
+        <f t="shared" si="1"/>
+        <v>21.986666666666665</v>
+      </c>
+      <c r="P13" s="45">
+        <f t="shared" si="1"/>
+        <v>22.794999999999998</v>
+      </c>
+      <c r="Q13" s="45">
+        <f t="shared" si="1"/>
+        <v>22.956666666666663</v>
+      </c>
+      <c r="R13" s="45">
+        <f t="shared" si="1"/>
+        <v>24.249999999999996</v>
+      </c>
+      <c r="S13" s="45">
+        <f t="shared" si="1"/>
+        <v>24.573333333333331</v>
+      </c>
+      <c r="T13" s="45">
+        <f t="shared" si="1"/>
+        <v>24.734999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S17" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="C9:N9"/>
+    <mergeCell ref="O9:T9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:W55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="8.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="23" width="8.83203125" style="1" customWidth="1"/>
+    <col min="24" max="28" width="9.1640625" style="1"/>
+    <col min="29" max="29" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2" s="24" t="s">
         <v>32</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="48" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B6" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="48" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="50"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="48" t="s">
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="54"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="50"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="54"/>
       <c r="L7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="51" t="s">
+      <c r="M7" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="28" t="s">
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="6" t="s">
         <v>33</v>
@@ -1524,8 +6348,8 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
       <c r="L8" s="8">
         <v>8</v>
       </c>
@@ -1545,43 +6369,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="29"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="30"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="26"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
       <c r="L10" s="8">
         <v>3</v>
       </c>
@@ -1598,32 +6415,16 @@
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="8">
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
-      <c r="B11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="11"/>
-    </row>
-    <row r="12" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="10"/>
+      <c r="M11" s="11"/>
+      <c r="W11" s="10"/>
+    </row>
+    <row r="12" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>37</v>
       </c>
@@ -1634,10 +6435,10 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
       <c r="L12" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>38</v>
@@ -1652,130 +6453,98 @@
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="8">
-        <v>7.15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="33"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="29"/>
-    </row>
-    <row r="14" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="30"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="26"/>
+    </row>
+    <row r="14" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="32">
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="29">
         <v>3</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="M14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="32">
+      <c r="W14" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="44"/>
-    </row>
-    <row r="16" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
+    <row r="15" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="11"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="11"/>
+      <c r="W15" s="26"/>
+    </row>
+    <row r="16" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="16">
+      <c r="L16" s="15">
         <f>SUM(L8:L15)</f>
-        <v>21</v>
-      </c>
-      <c r="M16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="16">
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="15">
         <f>SUM(W8:W15)</f>
-        <v>11.3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B18" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B19" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F19" s="1">
@@ -1789,32 +6558,32 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B20" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="1">
         <f>L16-W16</f>
-        <v>9.6999999999999993</v>
+        <v>9.85</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H20" s="1">
         <f>F20*F19</f>
-        <v>1455</v>
+        <v>1477.5</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="s">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B21" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F21" s="1">
         <f>(H20/60)*H21</f>
-        <v>4001.25</v>
+        <v>4063.125</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>29</v>
@@ -1822,169 +6591,169 @@
       <c r="H21" s="1">
         <v>165</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="19"/>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B22" s="16"/>
       <c r="F22" s="1">
         <f>F21/1000</f>
-        <v>4.0012499999999998</v>
+        <v>4.0631250000000003</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="10"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
+    <row r="23" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
       <c r="R23" s="1">
         <v>442.06670000000003</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="21"/>
-      <c r="C24" s="25" t="s">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B24" s="18"/>
+      <c r="C24" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="H24" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="24" t="s">
+      <c r="I24" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="24" t="s">
+      <c r="J24" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="24" t="s">
+      <c r="K24" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="24" t="s">
+      <c r="L24" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="M24" s="23" t="s">
+      <c r="M24" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="N24" s="23" t="s">
+      <c r="N24" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="20" t="s">
+      <c r="V24" s="46"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B25" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="32">
         <f>$F$22</f>
-        <v>4.0012499999999998</v>
-      </c>
-      <c r="D25" s="35">
+        <v>4.0631250000000003</v>
+      </c>
+      <c r="D25" s="32">
         <f t="shared" ref="D25:N25" si="0">$F$22</f>
-        <v>4.0012499999999998</v>
-      </c>
-      <c r="E25" s="35">
+        <v>4.0631250000000003</v>
+      </c>
+      <c r="E25" s="32">
         <f t="shared" si="0"/>
-        <v>4.0012499999999998</v>
-      </c>
-      <c r="F25" s="35">
+        <v>4.0631250000000003</v>
+      </c>
+      <c r="F25" s="32">
         <f t="shared" si="0"/>
-        <v>4.0012499999999998</v>
-      </c>
-      <c r="G25" s="35">
+        <v>4.0631250000000003</v>
+      </c>
+      <c r="G25" s="32">
         <f t="shared" si="0"/>
-        <v>4.0012499999999998</v>
-      </c>
-      <c r="H25" s="35">
+        <v>4.0631250000000003</v>
+      </c>
+      <c r="H25" s="32">
         <f t="shared" si="0"/>
-        <v>4.0012499999999998</v>
-      </c>
-      <c r="I25" s="35">
+        <v>4.0631250000000003</v>
+      </c>
+      <c r="I25" s="32">
         <f t="shared" si="0"/>
-        <v>4.0012499999999998</v>
-      </c>
-      <c r="J25" s="35">
+        <v>4.0631250000000003</v>
+      </c>
+      <c r="J25" s="32">
         <f t="shared" si="0"/>
-        <v>4.0012499999999998</v>
-      </c>
-      <c r="K25" s="35">
+        <v>4.0631250000000003</v>
+      </c>
+      <c r="K25" s="32">
         <f t="shared" si="0"/>
-        <v>4.0012499999999998</v>
-      </c>
-      <c r="L25" s="35">
+        <v>4.0631250000000003</v>
+      </c>
+      <c r="L25" s="32">
         <f t="shared" si="0"/>
-        <v>4.0012499999999998</v>
-      </c>
-      <c r="M25" s="35">
+        <v>4.0631250000000003</v>
+      </c>
+      <c r="M25" s="32">
         <f t="shared" si="0"/>
-        <v>4.0012499999999998</v>
-      </c>
-      <c r="N25" s="35">
+        <v>4.0631250000000003</v>
+      </c>
+      <c r="N25" s="32">
         <f t="shared" si="0"/>
-        <v>4.0012499999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="21" t="s">
+        <v>4.0631250000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B26" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H26" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I26" s="23" t="s">
+      <c r="I26" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="J26" s="23" t="s">
+      <c r="J26" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="K26" s="23" t="s">
+      <c r="K26" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="L26" s="23" t="s">
+      <c r="L26" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M26" s="23" t="s">
+      <c r="M26" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N26" s="23" t="s">
+      <c r="N26" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1994,23 +6763,28 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="22"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D29" s="43"/>
-      <c r="E29" s="40" t="s">
+      <c r="L27" s="19"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="E29" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="41">
+      <c r="F29" s="37">
         <f>F19*F20/60</f>
-        <v>24.25</v>
-      </c>
-      <c r="G29" s="42" t="s">
+        <v>24.625</v>
+      </c>
+      <c r="G29" s="38" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="E30" s="46" t="s">
+      <c r="P29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="E30" s="40" t="s">
         <v>60</v>
       </c>
       <c r="F30" s="1">
@@ -2020,7 +6794,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E31" s="1" t="s">
         <v>61</v>
       </c>
@@ -2032,11 +6806,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="E32" s="38" t="s">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="E32" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="47">
+      <c r="F32" s="41">
         <f>(169/2)*(7/60)</f>
         <v>9.8583333333333343</v>
       </c>
@@ -2044,44 +6818,46 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E33" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H33" s="1">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E34" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H34" s="1">
-        <f>H33</f>
-        <v>169</v>
-      </c>
-    </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E35" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H35" s="1">
         <f>H34*2</f>
-        <v>338</v>
-      </c>
-    </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36" spans="5:16" x14ac:dyDescent="0.2">
       <c r="H36" s="1">
         <f>SUM(H33:H35)</f>
-        <v>676</v>
+        <v>560</v>
       </c>
       <c r="I36" s="1">
-        <f>7/60*H36</f>
-        <v>78.866666666666674</v>
+        <f>8/60*H36</f>
+        <v>74.666666666666671</v>
       </c>
       <c r="J36" s="1">
         <f>F29*12</f>
-        <v>291</v>
+        <v>295.5</v>
       </c>
       <c r="K36" s="1">
         <f>F31*12</f>
@@ -2089,7 +6865,145 @@
       </c>
       <c r="L36" s="1">
         <f>SUM(I36:K36)</f>
-        <v>441.86666666666667</v>
+        <v>442.16666666666669</v>
+      </c>
+    </row>
+    <row r="42" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="H42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N42" s="41">
+        <f>6.2-0.8</f>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="43" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="H43" s="62">
+        <f>8/60*150</f>
+        <v>20</v>
+      </c>
+      <c r="I43" s="38">
+        <f>1/60*F19</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="44" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="G44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" s="41">
+        <f>(140/12)*(8/60)</f>
+        <v>1.5555555555555554</v>
+      </c>
+      <c r="I44" s="41">
+        <f>(140/12)*(1/60)</f>
+        <v>0.19444444444444442</v>
+      </c>
+    </row>
+    <row r="45" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="G45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H45" s="41">
+        <f>(H34/12)*(8/60)</f>
+        <v>1.5555555555555554</v>
+      </c>
+      <c r="I45" s="41">
+        <f>(140/12)*(1/60)</f>
+        <v>0.19444444444444442</v>
+      </c>
+    </row>
+    <row r="46" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="G46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H46" s="41">
+        <f>(280/12)*(8/60)</f>
+        <v>3.1111111111111107</v>
+      </c>
+      <c r="I46" s="41">
+        <f>(280/12)*(1/60)</f>
+        <v>0.38888888888888884</v>
+      </c>
+    </row>
+    <row r="47" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H47" s="1">
+        <f>5/60*F19</f>
+        <v>12.5</v>
+      </c>
+      <c r="I47" s="1">
+        <f>5/60*F19</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="48" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H48" s="38">
+        <f>3/60*150 + 6</f>
+        <v>13.5</v>
+      </c>
+      <c r="I48" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H49" s="1">
+        <f>3/60*F19</f>
+        <v>7.5</v>
+      </c>
+      <c r="I49" s="1">
+        <f>3/60*150</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="50" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H51" s="41">
+        <f>SUM(H43:H50)</f>
+        <v>59.722222222222229</v>
+      </c>
+      <c r="I51" s="41">
+        <f>SUM(I43:I50)</f>
+        <v>23.277777777777779</v>
+      </c>
+    </row>
+    <row r="54" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="I54" s="46"/>
+    </row>
+    <row r="55" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="I55" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2104,106 +7018,145 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E981FB-8DA8-F047-BBD8-4D5C8F1B6FC5}">
+  <dimension ref="C3:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:W39"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
-    <col min="3" max="23" width="8.85546875" style="1" customWidth="1"/>
-    <col min="24" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3" max="23" width="8.83203125" style="1" customWidth="1"/>
+    <col min="24" max="28" width="9.1640625" style="1"/>
+    <col min="29" max="29" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+    <row r="2" spans="1:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2" s="24" t="s">
         <v>40</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="48" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="50"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
-      <c r="B7" s="48" t="s">
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="54"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="60"/>
+      <c r="B7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="50"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="54"/>
       <c r="L7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="51" t="s">
+      <c r="M7" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="28" t="s">
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="61" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2216,8 +7169,8 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
       <c r="L8" s="8">
         <v>1</v>
       </c>
@@ -2237,43 +7190,36 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="29"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="36" t="s">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="59"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="26"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="59"/>
+      <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
       <c r="L10" s="8">
         <v>4</v>
       </c>
@@ -2293,30 +7239,14 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="11"/>
-    </row>
-    <row r="12" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="59"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="11"/>
+      <c r="W11" s="10"/>
+    </row>
+    <row r="12" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="59"/>
       <c r="B12" s="9" t="s">
         <v>44</v>
       </c>
@@ -2327,8 +7257,8 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
       <c r="L12" s="8">
         <v>9</v>
       </c>
@@ -2348,33 +7278,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="29"/>
-    </row>
-    <row r="14" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
+    <row r="13" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="59"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="26"/>
+    </row>
+    <row r="14" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="59"/>
       <c r="B14" s="9" t="s">
         <v>45</v>
       </c>
@@ -2385,8 +7315,8 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
       <c r="L14" s="8">
         <v>1.5</v>
       </c>
@@ -2406,33 +7336,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="29"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+    <row r="15" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="60"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="26"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="58" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -2445,8 +7375,8 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
       <c r="L16" s="8">
         <v>15</v>
       </c>
@@ -2460,49 +7390,42 @@
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
       <c r="W16" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="29"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
-      <c r="B18" s="36" t="s">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="59"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="26"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="59"/>
+      <c r="B18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
       <c r="L18" s="8">
         <v>1</v>
       </c>
@@ -2522,30 +7445,14 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="11"/>
-    </row>
-    <row r="20" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="59"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="11"/>
+      <c r="W19" s="10"/>
+    </row>
+    <row r="20" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="59"/>
       <c r="B20" s="9" t="s">
         <v>54</v>
       </c>
@@ -2556,8 +7463,8 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
       <c r="L20" s="8">
         <v>2</v>
       </c>
@@ -2577,33 +7484,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="29"/>
-    </row>
-    <row r="22" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+    <row r="21" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="59"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="26"/>
+    </row>
+    <row r="22" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="59"/>
       <c r="B22" s="9" t="s">
         <v>45</v>
       </c>
@@ -2614,8 +7521,8 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
       <c r="L22" s="8">
         <v>1.5</v>
       </c>
@@ -2635,72 +7542,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="29"/>
-    </row>
-    <row r="24" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
+    <row r="23" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="60"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="26"/>
+    </row>
+    <row r="24" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="16">
+      <c r="L24" s="15">
         <f>SUM(L8:L23)</f>
         <v>35</v>
       </c>
-      <c r="M24" s="17" t="s">
+      <c r="M24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="16">
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="15">
         <f>SUM(W8:W23)</f>
         <v>31.45</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B26" s="19" t="s">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B26" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B27" s="19" t="s">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B27" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F27" s="1">
@@ -2710,12 +7617,12 @@
       <c r="G27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="45" t="s">
+      <c r="H27" s="39" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="19" t="s">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B28" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F28" s="1">
@@ -2733,8 +7640,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="19" t="s">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B29" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F29" s="1">
@@ -2747,12 +7654,12 @@
       <c r="H29" s="1">
         <v>165</v>
       </c>
-      <c r="I29" s="22" t="s">
+      <c r="I29" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="19"/>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B30" s="16"/>
       <c r="F30" s="1">
         <f>F29/1000</f>
         <v>1.1129250000000004</v>
@@ -2761,152 +7668,151 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="10"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B32" s="21"/>
-      <c r="C32" s="25" t="s">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B32" s="18"/>
+      <c r="C32" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="23" t="s">
+      <c r="G32" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="24" t="s">
+      <c r="H32" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I32" s="24" t="s">
+      <c r="I32" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J32" s="24" t="s">
+      <c r="J32" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="24" t="s">
+      <c r="K32" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="24" t="s">
+      <c r="L32" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="M32" s="23" t="s">
+      <c r="M32" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="N32" s="23" t="s">
+      <c r="N32" s="20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="20" t="s">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B33" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="32">
         <f>$F$30</f>
         <v>1.1129250000000004</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="32">
         <f t="shared" ref="D33:N33" si="0">$F$30</f>
         <v>1.1129250000000004</v>
       </c>
-      <c r="E33" s="35">
+      <c r="E33" s="32">
         <f t="shared" si="0"/>
         <v>1.1129250000000004</v>
       </c>
-      <c r="F33" s="35">
+      <c r="F33" s="32">
         <f t="shared" si="0"/>
         <v>1.1129250000000004</v>
       </c>
-      <c r="G33" s="35">
+      <c r="G33" s="32">
         <f t="shared" si="0"/>
         <v>1.1129250000000004</v>
       </c>
-      <c r="H33" s="35">
+      <c r="H33" s="32">
         <f t="shared" si="0"/>
         <v>1.1129250000000004</v>
       </c>
-      <c r="I33" s="35">
+      <c r="I33" s="32">
         <f t="shared" si="0"/>
         <v>1.1129250000000004</v>
       </c>
-      <c r="J33" s="35">
+      <c r="J33" s="32">
         <f t="shared" si="0"/>
         <v>1.1129250000000004</v>
       </c>
-      <c r="K33" s="35">
+      <c r="K33" s="32">
         <f t="shared" si="0"/>
         <v>1.1129250000000004</v>
       </c>
-      <c r="L33" s="35">
+      <c r="L33" s="32">
         <f t="shared" si="0"/>
         <v>1.1129250000000004</v>
       </c>
-      <c r="M33" s="35">
+      <c r="M33" s="32">
         <f t="shared" si="0"/>
         <v>1.1129250000000004</v>
       </c>
-      <c r="N33" s="35">
+      <c r="N33" s="32">
         <f t="shared" si="0"/>
         <v>1.1129250000000004</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="21" t="s">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B34" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G34" s="23" t="s">
+      <c r="G34" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H34" s="23" t="s">
+      <c r="H34" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I34" s="23" t="s">
+      <c r="I34" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="J34" s="23" t="s">
+      <c r="J34" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="K34" s="23" t="s">
+      <c r="K34" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="L34" s="23" t="s">
+      <c r="L34" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M34" s="23" t="s">
+      <c r="M34" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N34" s="23" t="s">
+      <c r="N34" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -2916,23 +7822,23 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="22"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C38" s="40" t="s">
+      <c r="L35" s="19"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C38" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38" s="37">
         <f>(F27*F28)/60</f>
         <v>6.7450000000000019</v>
       </c>
-      <c r="E38" s="42" t="s">
+      <c r="E38" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C39" s="38"/>
-      <c r="D39" s="39"/>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C39" s="34"/>
+      <c r="D39" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Thời gian thao tác.xlsx
+++ b/Thời gian thao tác.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5B960D-F454-8841-849C-680AF9B0F0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCF8D4C-AE20-8E4D-8B82-0F50AC588872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="109">
   <si>
     <t>-</t>
   </si>
@@ -295,15 +295,9 @@
     <t>Hạng mục</t>
   </si>
   <si>
-    <t>Giờ công(MH)</t>
-  </si>
-  <si>
     <t>Giờ công tích luỹ(MH)</t>
   </si>
   <si>
-    <t>Tỷ suất kũy tích</t>
-  </si>
-  <si>
     <t>Tìm bảng</t>
   </si>
   <si>
@@ -337,17 +331,48 @@
     <t>11.67</t>
   </si>
   <si>
-    <t>36.4</t>
+    <t>Ghi chép ký lục</t>
+  </si>
+  <si>
+    <t>Lũy kế</t>
+  </si>
+  <si>
+    <t>Giờ công</t>
+  </si>
+  <si>
+    <t>Xử lý xe rách</t>
+  </si>
+  <si>
+    <t>Timer Tìm</t>
+  </si>
+  <si>
+    <t>Timer Move</t>
+  </si>
+  <si>
+    <t>timer ghi chép</t>
+  </si>
+  <si>
+    <t>khác</t>
+  </si>
+  <si>
+    <t>timer đổi bảng</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>Result</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,6 +411,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -583,7 +615,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -719,6 +751,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -764,17 +802,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
-    <cellStyle name="標準_2.１０上期　改善フォロー表(生管)" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_2.１０上期　改善フォロー表(生管)" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6600"/>
+      <color rgb="FFFFC000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2701,58 +2745,58 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>11.316666666666666</c:v>
+                  <c:v>36.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.801666666666666</c:v>
+                  <c:v>37.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.741666666666665</c:v>
+                  <c:v>41.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.549999999999999</c:v>
+                  <c:v>42.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.166666666666664</c:v>
+                  <c:v>45.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.298333333333332</c:v>
+                  <c:v>47.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.106666666666666</c:v>
+                  <c:v>49.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.076666666666664</c:v>
+                  <c:v>51.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.046666666666663</c:v>
+                  <c:v>52.899999999999991</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.693333333333332</c:v>
+                  <c:v>54.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.783333333333331</c:v>
+                  <c:v>48.7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21.016666666666666</c:v>
+                  <c:v>54.7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.986666666666665</c:v>
+                  <c:v>56.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22.794999999999998</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.956666666666663</c:v>
+                  <c:v>58.3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24.249999999999996</c:v>
+                  <c:v>60.7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24.573333333333331</c:v>
+                  <c:v>61.3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24.734999999999999</c:v>
+                  <c:v>61.599999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2799,7 +2843,7 @@
         <c:axId val="124847392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="30"/>
+          <c:max val="80"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2937,7 +2981,8 @@
         <c:crossAx val="124845680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5"/>
+        <c:majorUnit val="20"/>
+        <c:minorUnit val="4"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2984,6 +3029,690 @@
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Biểu đồ phân tích  chuyển đổi bảng MPB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-VN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6580927384076991E-2"/>
+          <c:y val="0.1902314814814815"/>
+          <c:w val="0.83629636920384953"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pareto!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Giờ công</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pareto!$C$5:$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Tìm bảng</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ghi chép ký lục</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Đổi bảng</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Di chuyển xe</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Khác</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pareto!$D$5:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>26.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A02-4153-A017-F5C83DF934A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pareto!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Giờ công tích luỹ(MH)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pareto!$C$5:$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Tìm bảng</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ghi chép ký lục</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Đổi bảng</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Di chuyển xe</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Khác</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pareto!$E$4:$E$9</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4A02-4153-A017-F5C83DF934A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2060993440"/>
+        <c:axId val="2060977632"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pareto!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lũy kế</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pareto!$C$4:$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>Tìm bảng</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ghi chép ký lục</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Đổi bảng</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Di chuyển xe</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Khác</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pareto!$F$4:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43234323432343236</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69471947194719474</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85973597359735976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98349834983498352</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4A02-4153-A017-F5C83DF934A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2060988448"/>
+        <c:axId val="2060984704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2060993440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg2">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="bg2">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>MH/tháng</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6300180427209238E-2"/>
+              <c:y val="8.7994131015329352E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg2">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-VN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2060977632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2060977632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2060993440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2060984704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2060988448"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="2060988448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2060984704"/>
+        <c:crosses val="max"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-VN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-VN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3107,6 +3836,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4610,6 +5379,509 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4711,8 +5983,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2844800" y="3162301"/>
-          <a:ext cx="8140700" cy="5092700"/>
+          <a:off x="2841625" y="3162301"/>
+          <a:ext cx="8064500" cy="5092700"/>
           <a:chOff x="2832100" y="2971801"/>
           <a:chExt cx="8140700" cy="5092700"/>
         </a:xfrm>
@@ -4794,7 +6066,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7734300" y="4406900"/>
+            <a:off x="7718275" y="4375150"/>
             <a:ext cx="304800" cy="330200"/>
           </a:xfrm>
           <a:prstGeom prst="ellipse">
@@ -4892,12 +6164,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.60842</cdr:x>
-      <cdr:y>0.70285</cdr:y>
+      <cdr:x>0.60251</cdr:x>
+      <cdr:y>0.67864</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.71919</cdr:x>
-      <cdr:y>0.8047</cdr:y>
+      <cdr:x>0.71328</cdr:x>
+      <cdr:y>0.78049</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -4912,8 +6184,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4953000" y="1843278"/>
-          <a:ext cx="901700" cy="267113"/>
+          <a:off x="4858978" y="1779773"/>
+          <a:ext cx="893305" cy="267109"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4936,6 +6208,47 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1217757</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>181552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>282575</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>67252</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5203,8 +6516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5213,25 +6526,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C1" s="47">
+      <c r="C1" s="51">
         <v>2023</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47">
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51">
         <v>2024</v>
       </c>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C2">
@@ -5429,28 +6742,28 @@
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C9" s="48">
+      <c r="C9" s="52">
         <v>2023</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="51">
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="55">
         <v>2024</v>
       </c>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C10" s="42" t="s">
@@ -5719,11 +7032,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7658DFB-B311-EE40-9903-52A8ECCC76AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:T17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5732,25 +7045,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C1" s="47">
+      <c r="C1" s="51">
         <v>2023</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47">
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51">
         <v>2024</v>
       </c>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C2">
@@ -5941,35 +7254,29 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C6">
-        <f>9.7/60</f>
-        <v>0.16166666666666665</v>
-      </c>
-    </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C9" s="48">
+      <c r="C9" s="52">
         <v>2023</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="51">
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="55">
         <v>2024</v>
       </c>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C10" s="42" t="s">
@@ -6150,76 +7457,76 @@
         <v>84</v>
       </c>
       <c r="C13" s="45">
-        <f>C12*$C$6</f>
-        <v>11.316666666666666</v>
+        <f>SUM('Topic 1'!$G$60:$G$64) + SUM('Topic 1'!$G$65:$G$68)*'Sheet1 (2)'!C12</f>
+        <v>36.700000000000003</v>
       </c>
       <c r="D13" s="45">
-        <f t="shared" ref="D13:T13" si="1">D12*$C$6</f>
-        <v>11.801666666666666</v>
+        <f>SUM('Topic 1'!$G$60:$G$64) + SUM('Topic 1'!$G$65:$G$68)*'Sheet1 (2)'!D12</f>
+        <v>37.599999999999994</v>
       </c>
       <c r="E13" s="45">
-        <f t="shared" si="1"/>
-        <v>13.741666666666665</v>
+        <f>SUM('Topic 1'!$G$60:$G$64) + SUM('Topic 1'!$G$65:$G$68)*'Sheet1 (2)'!E12</f>
+        <v>41.2</v>
       </c>
       <c r="F13" s="45">
-        <f t="shared" si="1"/>
-        <v>14.549999999999999</v>
+        <f>SUM('Topic 1'!$G$60:$G$64) + SUM('Topic 1'!$G$65:$G$68)*'Sheet1 (2)'!F12</f>
+        <v>42.7</v>
       </c>
       <c r="G13" s="45">
-        <f t="shared" si="1"/>
-        <v>16.166666666666664</v>
+        <f>SUM('Topic 1'!$G$60:$G$64) + SUM('Topic 1'!$G$65:$G$68)*'Sheet1 (2)'!G12</f>
+        <v>45.7</v>
       </c>
       <c r="H13" s="45">
-        <f t="shared" si="1"/>
-        <v>17.298333333333332</v>
+        <f>SUM('Topic 1'!$G$60:$G$64) + SUM('Topic 1'!$G$65:$G$68)*'Sheet1 (2)'!H12</f>
+        <v>47.8</v>
       </c>
       <c r="I13" s="45">
-        <f t="shared" si="1"/>
-        <v>18.106666666666666</v>
+        <f>SUM('Topic 1'!$G$60:$G$64) + SUM('Topic 1'!$G$65:$G$68)*'Sheet1 (2)'!I12</f>
+        <v>49.3</v>
       </c>
       <c r="J13" s="45">
-        <f t="shared" si="1"/>
-        <v>19.076666666666664</v>
+        <f>SUM('Topic 1'!$G$60:$G$64) + SUM('Topic 1'!$G$65:$G$68)*'Sheet1 (2)'!J12</f>
+        <v>51.099999999999994</v>
       </c>
       <c r="K13" s="45">
-        <f t="shared" si="1"/>
-        <v>20.046666666666663</v>
+        <f>SUM('Topic 1'!$G$60:$G$64) + SUM('Topic 1'!$G$65:$G$68)*'Sheet1 (2)'!K12</f>
+        <v>52.899999999999991</v>
       </c>
       <c r="L13" s="45">
-        <f t="shared" si="1"/>
-        <v>20.693333333333332</v>
+        <f>SUM('Topic 1'!$G$60:$G$64) + SUM('Topic 1'!$G$65:$G$68)*'Sheet1 (2)'!L12</f>
+        <v>54.099999999999994</v>
       </c>
       <c r="M13" s="45">
-        <f>M12*$C$6</f>
-        <v>17.783333333333331</v>
+        <f>SUM('Topic 1'!$G$60:$G$64) + SUM('Topic 1'!$G$65:$G$68)*'Sheet1 (2)'!M12</f>
+        <v>48.7</v>
       </c>
       <c r="N13" s="45">
-        <f t="shared" si="1"/>
-        <v>21.016666666666666</v>
+        <f>SUM('Topic 1'!$G$60:$G$64) + SUM('Topic 1'!$G$65:$G$68)*'Sheet1 (2)'!N12</f>
+        <v>54.7</v>
       </c>
       <c r="O13" s="45">
-        <f t="shared" si="1"/>
-        <v>21.986666666666665</v>
+        <f>SUM('Topic 1'!$G$60:$G$64) + SUM('Topic 1'!$G$65:$G$68)*'Sheet1 (2)'!O12</f>
+        <v>56.5</v>
       </c>
       <c r="P13" s="45">
-        <f t="shared" si="1"/>
-        <v>22.794999999999998</v>
+        <f>SUM('Topic 1'!$G$60:$G$64) + SUM('Topic 1'!$G$65:$G$68)*'Sheet1 (2)'!P12</f>
+        <v>58</v>
       </c>
       <c r="Q13" s="45">
-        <f t="shared" si="1"/>
-        <v>22.956666666666663</v>
+        <f>SUM('Topic 1'!$G$60:$G$64) + SUM('Topic 1'!$G$65:$G$68)*'Sheet1 (2)'!Q12</f>
+        <v>58.3</v>
       </c>
       <c r="R13" s="45">
-        <f t="shared" si="1"/>
-        <v>24.249999999999996</v>
+        <f>SUM('Topic 1'!$G$60:$G$64) + SUM('Topic 1'!$G$65:$G$68)*'Sheet1 (2)'!R12</f>
+        <v>60.7</v>
       </c>
       <c r="S13" s="45">
-        <f t="shared" si="1"/>
-        <v>24.573333333333331</v>
+        <f>SUM('Topic 1'!$G$60:$G$64) + SUM('Topic 1'!$G$65:$G$68)*'Sheet1 (2)'!S12</f>
+        <v>61.3</v>
       </c>
       <c r="T13" s="45">
-        <f t="shared" si="1"/>
-        <v>24.734999999999999</v>
+        <f>SUM('Topic 1'!$G$60:$G$64) + SUM('Topic 1'!$G$65:$G$68)*'Sheet1 (2)'!T12</f>
+        <v>61.599999999999994</v>
       </c>
     </row>
     <row r="17" spans="19:19" x14ac:dyDescent="0.2">
@@ -6238,11 +7545,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:W55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:W68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6252,7 +7559,7 @@
     <col min="3" max="5" width="8.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="23" width="8.83203125" style="1" customWidth="1"/>
     <col min="24" max="28" width="9.1640625" style="1"/>
@@ -6277,61 +7584,61 @@
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="52" t="s">
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="54"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="58"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="58"/>
       <c r="L7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="55" t="s">
+      <c r="M7" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="57"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="61"/>
       <c r="W7" s="25" t="s">
         <v>19</v>
       </c>
@@ -6657,6 +7964,10 @@
       <c r="N24" s="20" t="s">
         <v>7</v>
       </c>
+      <c r="R24" s="1">
+        <f xml:space="preserve"> 7*12</f>
+        <v>84</v>
+      </c>
       <c r="V24" s="46"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
@@ -6710,6 +8021,10 @@
       <c r="N25" s="32">
         <f t="shared" si="0"/>
         <v>4.0631250000000003</v>
+      </c>
+      <c r="R25" s="1">
+        <f>SUM(R23:R24)</f>
+        <v>526.06670000000008</v>
       </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
@@ -6799,8 +8114,8 @@
         <v>61</v>
       </c>
       <c r="F31" s="1">
-        <f>5/60*3*24</f>
-        <v>6</v>
+        <f>7/60*3*24</f>
+        <v>8.3999999999999986</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>57</v>
@@ -6811,8 +8126,7 @@
         <v>66</v>
       </c>
       <c r="F32" s="41">
-        <f>(169/2)*(7/60)</f>
-        <v>9.8583333333333343</v>
+        <v>4</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>67</v>
@@ -6834,7 +8148,7 @@
         <v>140</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.2">
@@ -6861,19 +8175,19 @@
       </c>
       <c r="K36" s="1">
         <f>F31*12</f>
-        <v>72</v>
+        <v>100.79999999999998</v>
       </c>
       <c r="L36" s="1">
         <f>SUM(I36:K36)</f>
-        <v>442.16666666666669</v>
+        <v>470.9666666666667</v>
       </c>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.2">
       <c r="H42" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N42" s="41">
         <f>6.2-0.8</f>
@@ -6882,12 +8196,12 @@
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F43" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G43" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="H43" s="62">
+        <v>90</v>
+      </c>
+      <c r="H43" s="47">
         <f>8/60*150</f>
         <v>20</v>
       </c>
@@ -6901,109 +8215,205 @@
         <v>62</v>
       </c>
       <c r="H44" s="41">
-        <f>(140/12)*(8/60)</f>
+        <f>(H33/12)*(8/60)</f>
         <v>1.5555555555555554</v>
       </c>
       <c r="I44" s="41">
-        <f>(140/12)*(1/60)</f>
+        <f>(H33/12)*(1/60)</f>
         <v>0.19444444444444442</v>
       </c>
     </row>
     <row r="45" spans="5:16" x14ac:dyDescent="0.2">
       <c r="G45" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H45" s="41">
         <f>(H34/12)*(8/60)</f>
         <v>1.5555555555555554</v>
       </c>
       <c r="I45" s="41">
-        <f>(140/12)*(1/60)</f>
+        <f>(H34/12)*(1/60)</f>
         <v>0.19444444444444442</v>
       </c>
     </row>
     <row r="46" spans="5:16" x14ac:dyDescent="0.2">
       <c r="G46" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H46" s="41">
-        <f>(280/12)*(8/60)</f>
+        <f>(H35/12)*(8/60)</f>
         <v>3.1111111111111107</v>
       </c>
       <c r="I46" s="41">
-        <f>(280/12)*(1/60)</f>
+        <f>(H35/12)*(1/60)</f>
         <v>0.38888888888888884</v>
       </c>
     </row>
     <row r="47" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F47" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H47" s="1">
-        <f>5/60*F19</f>
-        <v>12.5</v>
+        <f>3/60*F19</f>
+        <v>7.5</v>
       </c>
       <c r="I47" s="1">
-        <f>5/60*F19</f>
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="48" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F48" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H48" s="38">
-        <f>3/60*150 + 6</f>
-        <v>13.5</v>
+        <f>3/60*F19 + F31</f>
+        <v>15.899999999999999</v>
       </c>
       <c r="I48" s="1">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F49" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H49" s="1">
-        <f>3/60*F19</f>
-        <v>7.5</v>
+        <f>4/60*F19</f>
+        <v>10</v>
       </c>
       <c r="I49" s="1">
-        <f>3/60*150</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="50" spans="6:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F50" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="6:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F51" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H51" s="41">
         <f>SUM(H43:H50)</f>
-        <v>59.722222222222229</v>
+        <v>60.622222222222227</v>
       </c>
       <c r="I51" s="41">
         <f>SUM(I43:I50)</f>
-        <v>23.277777777777779</v>
-      </c>
-    </row>
-    <row r="54" spans="6:9" x14ac:dyDescent="0.2">
+        <v>21.777777777777779</v>
+      </c>
+    </row>
+    <row r="54" spans="6:11" x14ac:dyDescent="0.2">
       <c r="I54" s="46"/>
     </row>
-    <row r="55" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="I55" s="1" t="s">
-        <v>100</v>
+    <row r="55" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="I55" s="41">
+        <f>H51-I51</f>
+        <v>38.844444444444449</v>
+      </c>
+      <c r="K55" s="1">
+        <f>I55*12</f>
+        <v>466.13333333333338</v>
+      </c>
+    </row>
+    <row r="58" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="G58" s="66"/>
+    </row>
+    <row r="60" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="61" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J61" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G62" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="63" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G63" s="1">
+        <f>7/60*3*24</f>
+        <v>8.3999999999999986</v>
+      </c>
+    </row>
+    <row r="64" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F64" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F65" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G65" s="66">
+        <f>8/60</f>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="66" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F66" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G66" s="1">
+        <f>3/60</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="67" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F67" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G67" s="1">
+        <f>3/60</f>
+        <v>0.05</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J67" s="1">
+        <f>SUM(G59:G64) + J61*SUM(G65:G68)</f>
+        <v>60.7</v>
+      </c>
+    </row>
+    <row r="68" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F68" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G68" s="66">
+        <f>4/60</f>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7019,46 +8429,136 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E981FB-8DA8-F047-BBD8-4D5C8F1B6FC5}">
-  <dimension ref="C3:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B3:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C3" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C5" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="F3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>89</v>
+      <c r="D5" s="48">
+        <v>26.2</v>
+      </c>
+      <c r="E5" s="48">
+        <f>D5</f>
+        <v>26.2</v>
+      </c>
+      <c r="F5" s="49">
+        <f>E5/$E$9</f>
+        <v>0.43234323432343236</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C6" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="18">
+        <v>15.899999999999999</v>
+      </c>
+      <c r="E6" s="48">
+        <f>E5+D6</f>
+        <v>42.099999999999994</v>
+      </c>
+      <c r="F6" s="49">
+        <f>E6/$E$9</f>
+        <v>0.69471947194719474</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C7" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="48">
+        <f>E6+D7</f>
+        <v>52.099999999999994</v>
+      </c>
+      <c r="F7" s="49">
+        <f>E7/$E$9</f>
+        <v>0.85973597359735976</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C8" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="48">
+        <v>7.5</v>
+      </c>
+      <c r="E8" s="48">
+        <f>E7+D8</f>
+        <v>59.599999999999994</v>
+      </c>
+      <c r="F8" s="49">
+        <f>E8/$E$9</f>
+        <v>0.98349834983498352</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="48">
+        <v>1</v>
+      </c>
+      <c r="E9" s="48">
+        <f>E8+D9</f>
+        <v>60.599999999999994</v>
+      </c>
+      <c r="F9" s="49">
+        <f>E9/$E$9</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:W39"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
@@ -7092,71 +8592,71 @@
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="52" t="s">
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="54"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="58"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="60"/>
-      <c r="B7" s="52" t="s">
+      <c r="A7" s="64"/>
+      <c r="B7" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="58"/>
       <c r="L7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="55" t="s">
+      <c r="M7" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="57"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="61"/>
       <c r="W7" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="65" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -7191,7 +8691,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="59"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="30"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -7216,7 +8716,7 @@
       <c r="W9" s="26"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="59"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
@@ -7240,13 +8740,13 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="59"/>
+      <c r="A11" s="63"/>
       <c r="L11" s="10"/>
       <c r="M11" s="11"/>
       <c r="W11" s="10"/>
     </row>
     <row r="12" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="9" t="s">
         <v>44</v>
       </c>
@@ -7279,7 +8779,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="59"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="30"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -7304,7 +8804,7 @@
       <c r="W13" s="26"/>
     </row>
     <row r="14" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="59"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="9" t="s">
         <v>45</v>
       </c>
@@ -7337,7 +8837,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="60"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="30"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -7362,7 +8862,7 @@
       <c r="W15" s="26"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="62" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -7397,7 +8897,7 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="59"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="30"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -7422,7 +8922,7 @@
       <c r="W17" s="26"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="59"/>
+      <c r="A18" s="63"/>
       <c r="B18" s="2" t="s">
         <v>51</v>
       </c>
@@ -7446,13 +8946,13 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A19" s="59"/>
+      <c r="A19" s="63"/>
       <c r="L19" s="10"/>
       <c r="M19" s="11"/>
       <c r="W19" s="10"/>
     </row>
     <row r="20" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="59"/>
+      <c r="A20" s="63"/>
       <c r="B20" s="9" t="s">
         <v>54</v>
       </c>
@@ -7485,7 +8985,7 @@
       </c>
     </row>
     <row r="21" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="59"/>
+      <c r="A21" s="63"/>
       <c r="B21" s="30"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -7510,7 +9010,7 @@
       <c r="W21" s="26"/>
     </row>
     <row r="22" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="59"/>
+      <c r="A22" s="63"/>
       <c r="B22" s="9" t="s">
         <v>45</v>
       </c>
@@ -7543,7 +9043,7 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="60"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="30"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>

--- a/Thời gian thao tác.xlsx
+++ b/Thời gian thao tác.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCF8D4C-AE20-8E4D-8B82-0F50AC588872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="495" windowWidth="27960" windowHeight="17505" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="4" r:id="rId2"/>
     <sheet name="Topic 1" sheetId="1" r:id="rId3"/>
     <sheet name="Pareto" sheetId="5" r:id="rId4"/>
-    <sheet name="Topic 2" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="Phân tích nguyên nhân" sheetId="6" r:id="rId5"/>
+    <sheet name="Topic 2" sheetId="2" state="hidden" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="134">
   <si>
     <t>-</t>
   </si>
@@ -362,17 +362,103 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Điểm vấn đề</t>
+  </si>
+  <si>
+    <t>Nguyên nhân</t>
+  </si>
+  <si>
+    <t>Phương án cải thiện</t>
+  </si>
+  <si>
+    <t>Dự đoán hiệu quả (MH/tháng)</t>
+  </si>
+  <si>
+    <t>tin lâu</t>
+  </si>
+  <si>
+    <r>
+      <t>Bảng thông tin chứa quá nhiều data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>→ tìm lâu</t>
+    </r>
+  </si>
+  <si>
+    <t>Người thao tác sắp xếp,cập nhật sai vị trí nhãn mã bảng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tìm kiếm mã thiết bị trên bảng thông </t>
+  </si>
+  <si>
+    <t>Tốn thêm nhiều thời gian đi tìm bảng  trên line, trên xe…</t>
+  </si>
+  <si>
+    <t>khi thông tin vị trí thiết bị trên bảng quản lý thường sai sót</t>
+  </si>
+  <si>
+    <t>vào line (không có cơ chế real time)</t>
+  </si>
+  <si>
+    <t>Thông tin ghi chép trên bảng quản lý khó đọc</t>
+  </si>
+  <si>
+    <t>Quản lý ca tốn thời gian cho việc xác nhận thông tin</t>
+  </si>
+  <si>
+    <t>chép trên bảng quản lý và tổng hợp ký lục lúc cuối ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bảng quản lý tại ngay thời điểm chuyển đổi bảng </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Không thể thay đổi,cập nhật được vị trí mã thiết bị trên</t>
+  </si>
+  <si>
+    <t>Nhập liệu thủ công để tổng hợp ký luc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vị trí xe đẩy bảng thường không được sắp xếp theo thứ </t>
+  </si>
+  <si>
+    <t>xe đẩy bảng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chưa có biểu thị thứ tự số đặt để tại khu vực quản lý </t>
+  </si>
+  <si>
+    <t>tự của mã xe -&gt; tốn thời gian tìm xe đổi bảng &amp; sắp xếp</t>
+  </si>
+  <si>
+    <t>lại xe</t>
+  </si>
+  <si>
+    <t>layout lại vị trí,diện tích</t>
+  </si>
+  <si>
+    <t>đặt để của từng xe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,6 +507,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -615,7 +707,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -757,6 +849,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -802,14 +897,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
-    <cellStyle name="標準_2.１０上期　改善フォロー表(生管)" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_2.１０上期　改善フォロー表(生管)" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -910,7 +1005,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-VN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1485,7 +1580,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-VN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1524,7 +1619,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="295001216"/>
@@ -1569,7 +1664,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="294912320"/>
@@ -1609,7 +1704,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="401228480"/>
@@ -1680,7 +1775,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-VN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1723,7 +1818,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -1743,10 +1838,11 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1772,7 +1868,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-VN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1802,7 +1898,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-VN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2169,7 +2265,7 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="124847392"/>
@@ -2253,7 +2349,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-VN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2290,7 +2386,7 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="124845680"/>
@@ -2308,6 +2404,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2315,7 +2412,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2334,7 +2430,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-VN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2421,7 +2517,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-VN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2493,7 +2589,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-VN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -2938,7 +3034,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-VN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2975,7 +3071,7 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="124845680"/>
@@ -2994,6 +3090,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3001,7 +3098,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3020,7 +3116,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-VN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3077,6 +3173,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3101,7 +3198,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-VN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3453,7 +3550,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-VN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3491,7 +3588,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2060977632"/>
@@ -3540,7 +3637,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2060993440"/>
@@ -3585,7 +3682,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2060988448"/>
@@ -3630,7 +3727,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2060984704"/>
@@ -3650,6 +3747,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3675,7 +3773,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-VN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3705,7 +3803,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-VN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5983,8 +6081,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2841625" y="3162301"/>
-          <a:ext cx="8064500" cy="5092700"/>
+          <a:off x="2488406" y="3162301"/>
+          <a:ext cx="7207250" cy="5092700"/>
           <a:chOff x="2832100" y="2971801"/>
           <a:chExt cx="8140700" cy="5092700"/>
         </a:xfrm>
@@ -6513,40 +6611,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T17"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C1" s="51">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C1" s="52">
         <v>2023</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51">
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52">
         <v>2024</v>
       </c>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-    </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>4</v>
       </c>
@@ -6602,7 +6700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>123</v>
       </c>
@@ -6661,7 +6759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C4">
         <f>B3+C3</f>
         <v>126</v>
@@ -6735,37 +6833,37 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C6">
         <f>9.7/60</f>
         <v>0.16166666666666665</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C9" s="52">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C9" s="53">
         <v>2023</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="55">
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="56">
         <v>2024</v>
       </c>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C10" s="42" t="s">
         <v>74</v>
       </c>
@@ -6821,7 +6919,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>70</v>
       </c>
@@ -6880,7 +6978,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>69</v>
       </c>
@@ -6939,7 +7037,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>84</v>
       </c>
@@ -7016,7 +7114,7 @@
         <v>24.734999999999999</v>
       </c>
     </row>
-    <row r="17" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S17" s="44"/>
     </row>
   </sheetData>
@@ -7032,40 +7130,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C1" s="51">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C1" s="52">
         <v>2023</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51">
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52">
         <v>2024</v>
       </c>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-    </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>4</v>
       </c>
@@ -7121,7 +7219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>123</v>
       </c>
@@ -7180,7 +7278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C4">
         <f>B3+C3</f>
         <v>126</v>
@@ -7254,31 +7352,31 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C9" s="52">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C9" s="53">
         <v>2023</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="55">
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="56">
         <v>2024</v>
       </c>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C10" s="42" t="s">
         <v>74</v>
       </c>
@@ -7334,7 +7432,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>70</v>
       </c>
@@ -7393,7 +7491,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>69</v>
       </c>
@@ -7452,7 +7550,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>84</v>
       </c>
@@ -7529,7 +7627,7 @@
         <v>61.599999999999994</v>
       </c>
     </row>
-    <row r="17" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S17" s="44"/>
     </row>
   </sheetData>
@@ -7545,29 +7643,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W68"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="8.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="23" width="8.83203125" style="1" customWidth="1"/>
-    <col min="24" max="28" width="9.1640625" style="1"/>
-    <col min="29" max="29" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="6.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="8.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="23" width="8.85546875" style="1" customWidth="1"/>
+    <col min="24" max="28" width="9.140625" style="1"/>
+    <col min="29" max="29" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
         <v>32</v>
       </c>
@@ -7575,75 +7673,75 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B6" s="56" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="56" t="s">
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="58"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="56" t="s">
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="59"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="59"/>
       <c r="L7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="59" t="s">
+      <c r="M7" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="62"/>
       <c r="W7" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="6" t="s">
         <v>33</v>
@@ -7676,7 +7774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="30"/>
       <c r="C9" s="12"/>
@@ -7701,7 +7799,7 @@
       <c r="V9" s="12"/>
       <c r="W9" s="26"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>35</v>
@@ -7725,13 +7823,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="L11" s="10"/>
       <c r="M11" s="11"/>
       <c r="W11" s="10"/>
     </row>
-    <row r="12" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>37</v>
       </c>
@@ -7763,7 +7861,7 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="30"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -7787,7 +7885,7 @@
       <c r="V13" s="12"/>
       <c r="W13" s="26"/>
     </row>
-    <row r="14" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>65</v>
       </c>
@@ -7803,7 +7901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
@@ -7811,7 +7909,7 @@
       <c r="M15" s="11"/>
       <c r="W15" s="26"/>
     </row>
-    <row r="16" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
         <v>20</v>
       </c>
@@ -7845,12 +7943,12 @@
         <v>9.15</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
         <v>22</v>
       </c>
@@ -7865,7 +7963,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>25</v>
       </c>
@@ -7884,7 +7982,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
         <v>21</v>
       </c>
@@ -7902,7 +8000,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="16"/>
       <c r="F22" s="1">
         <f>F21/1000</f>
@@ -7912,7 +8010,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
@@ -7926,7 +8024,7 @@
         <v>442.06670000000003</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
       <c r="C24" s="22" t="s">
         <v>8</v>
@@ -7970,7 +8068,7 @@
       </c>
       <c r="V24" s="46"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="17" t="s">
         <v>1</v>
       </c>
@@ -8027,7 +8125,7 @@
         <v>526.06670000000008</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
         <v>2</v>
       </c>
@@ -8068,7 +8166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -8080,7 +8178,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="19"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E29" s="36" t="s">
         <v>56</v>
       </c>
@@ -8098,7 +8196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E30" s="40" t="s">
         <v>60</v>
       </c>
@@ -8109,7 +8207,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E31" s="1" t="s">
         <v>61</v>
       </c>
@@ -8121,7 +8219,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E32" s="34" t="s">
         <v>66</v>
       </c>
@@ -8132,7 +8230,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E33" s="1" t="s">
         <v>62</v>
       </c>
@@ -8140,7 +8238,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E34" s="1" t="s">
         <v>63</v>
       </c>
@@ -8151,7 +8249,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E35" s="1" t="s">
         <v>64</v>
       </c>
@@ -8160,7 +8258,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="36" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H36" s="1">
         <f>SUM(H33:H35)</f>
         <v>560</v>
@@ -8182,7 +8280,7 @@
         <v>470.9666666666667</v>
       </c>
     </row>
-    <row r="42" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H42" s="1" t="s">
         <v>88</v>
       </c>
@@ -8194,7 +8292,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="43" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F43" s="1" t="s">
         <v>87</v>
       </c>
@@ -8210,7 +8308,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="44" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G44" s="1" t="s">
         <v>62</v>
       </c>
@@ -8223,7 +8321,7 @@
         <v>0.19444444444444442</v>
       </c>
     </row>
-    <row r="45" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G45" s="1" t="s">
         <v>91</v>
       </c>
@@ -8236,7 +8334,7 @@
         <v>0.19444444444444442</v>
       </c>
     </row>
-    <row r="46" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G46" s="1" t="s">
         <v>92</v>
       </c>
@@ -8249,7 +8347,7 @@
         <v>0.38888888888888884</v>
       </c>
     </row>
-    <row r="47" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F47" s="1" t="s">
         <v>93</v>
       </c>
@@ -8261,7 +8359,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="48" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F48" s="1" t="s">
         <v>94</v>
       </c>
@@ -8274,7 +8372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F49" s="1" t="s">
         <v>95</v>
       </c>
@@ -8286,7 +8384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F50" s="1" t="s">
         <v>83</v>
       </c>
@@ -8297,7 +8395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F51" s="1" t="s">
         <v>96</v>
       </c>
@@ -8310,10 +8408,10 @@
         <v>21.777777777777779</v>
       </c>
     </row>
-    <row r="54" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="6:11" x14ac:dyDescent="0.25">
       <c r="I54" s="46"/>
     </row>
-    <row r="55" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:11" x14ac:dyDescent="0.25">
       <c r="I55" s="41">
         <f>H51-I51</f>
         <v>38.844444444444449</v>
@@ -8323,10 +8421,10 @@
         <v>466.13333333333338</v>
       </c>
     </row>
-    <row r="58" spans="6:11" x14ac:dyDescent="0.2">
-      <c r="G58" s="66"/>
-    </row>
-    <row r="60" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="G58" s="51"/>
+    </row>
+    <row r="60" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F60" s="1" t="s">
         <v>62</v>
       </c>
@@ -8334,7 +8432,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="61" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F61" s="1" t="s">
         <v>91</v>
       </c>
@@ -8348,7 +8446,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F62" s="1" t="s">
         <v>92</v>
       </c>
@@ -8356,7 +8454,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="63" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F63" s="1" t="s">
         <v>61</v>
       </c>
@@ -8365,7 +8463,7 @@
         <v>8.3999999999999986</v>
       </c>
     </row>
-    <row r="64" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F64" s="1" t="s">
         <v>105</v>
       </c>
@@ -8373,16 +8471,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F65" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G65" s="66">
+      <c r="G65" s="51">
         <f>8/60</f>
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="66" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F66" s="1" t="s">
         <v>103</v>
       </c>
@@ -8391,7 +8489,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="67" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F67" s="1" t="s">
         <v>104</v>
       </c>
@@ -8407,11 +8505,11 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="68" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F68" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G68" s="66">
+      <c r="G68" s="51">
         <f>4/60</f>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -8429,23 +8527,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F9"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C3" s="48" t="s">
         <v>85</v>
       </c>
@@ -8459,7 +8557,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C4" s="48"/>
       <c r="D4" s="48"/>
       <c r="E4" s="48"/>
@@ -8467,7 +8565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C5" s="48" t="s">
         <v>87</v>
       </c>
@@ -8483,7 +8581,7 @@
         <v>0.43234323432343236</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C6" s="48" t="s">
         <v>98</v>
       </c>
@@ -8499,7 +8597,7 @@
         <v>0.69471947194719474</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C7" s="48" t="s">
         <v>95</v>
       </c>
@@ -8515,7 +8613,7 @@
         <v>0.85973597359735976</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C8" s="48" t="s">
         <v>93</v>
       </c>
@@ -8531,7 +8629,7 @@
         <v>0.98349834983498352</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="50" t="s">
         <v>101</v>
       </c>
@@ -8558,24 +8656,169 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="52.28515625" customWidth="1"/>
+    <col min="5" max="5" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="67"/>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="68"/>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="68"/>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="68"/>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="68"/>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="69"/>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="67"/>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="68"/>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="69"/>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="69"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W39"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
-    <col min="3" max="23" width="8.83203125" style="1" customWidth="1"/>
-    <col min="24" max="28" width="9.1640625" style="1"/>
-    <col min="29" max="29" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
+    <col min="3" max="23" width="8.85546875" style="1" customWidth="1"/>
+    <col min="24" max="28" width="9.140625" style="1"/>
+    <col min="29" max="29" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
         <v>40</v>
       </c>
@@ -8583,80 +8826,80 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="62" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="56" t="s">
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="58"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="64"/>
-      <c r="B7" s="56" t="s">
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="59"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="65"/>
+      <c r="B7" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="59"/>
       <c r="L7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="59" t="s">
+      <c r="M7" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="62"/>
       <c r="W7" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="65" t="s">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="66" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -8690,8 +8933,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="63"/>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="64"/>
       <c r="B9" s="30"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -8715,8 +8958,8 @@
       <c r="V9" s="12"/>
       <c r="W9" s="26"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="63"/>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="64"/>
       <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
@@ -8739,14 +8982,14 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="63"/>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="64"/>
       <c r="L11" s="10"/>
       <c r="M11" s="11"/>
       <c r="W11" s="10"/>
     </row>
-    <row r="12" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="63"/>
+    <row r="12" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="64"/>
       <c r="B12" s="9" t="s">
         <v>44</v>
       </c>
@@ -8778,8 +9021,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="63"/>
+    <row r="13" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="64"/>
       <c r="B13" s="30"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -8803,8 +9046,8 @@
       <c r="V13" s="12"/>
       <c r="W13" s="26"/>
     </row>
-    <row r="14" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
+    <row r="14" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="64"/>
       <c r="B14" s="9" t="s">
         <v>45</v>
       </c>
@@ -8836,8 +9079,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="64"/>
+    <row r="15" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="65"/>
       <c r="B15" s="30"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -8861,8 +9104,8 @@
       <c r="V15" s="12"/>
       <c r="W15" s="26"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="62" t="s">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="63" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -8896,8 +9139,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="64"/>
       <c r="B17" s="30"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -8921,8 +9164,8 @@
       <c r="V17" s="33"/>
       <c r="W17" s="26"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="63"/>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="64"/>
       <c r="B18" s="2" t="s">
         <v>51</v>
       </c>
@@ -8945,14 +9188,14 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A19" s="63"/>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="64"/>
       <c r="L19" s="10"/>
       <c r="M19" s="11"/>
       <c r="W19" s="10"/>
     </row>
-    <row r="20" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="63"/>
+    <row r="20" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="64"/>
       <c r="B20" s="9" t="s">
         <v>54</v>
       </c>
@@ -8984,8 +9227,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="63"/>
+    <row r="21" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="64"/>
       <c r="B21" s="30"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -9009,8 +9252,8 @@
       <c r="V21" s="12"/>
       <c r="W21" s="26"/>
     </row>
-    <row r="22" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="63"/>
+    <row r="22" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="64"/>
       <c r="B22" s="9" t="s">
         <v>45</v>
       </c>
@@ -9042,8 +9285,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="64"/>
+    <row r="23" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="65"/>
       <c r="B23" s="30"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -9067,7 +9310,7 @@
       <c r="V23" s="12"/>
       <c r="W23" s="26"/>
     </row>
-    <row r="24" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>20</v>
       </c>
@@ -9101,12 +9344,12 @@
         <v>31.45</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
         <v>22</v>
       </c>
@@ -9121,7 +9364,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
         <v>25</v>
       </c>
@@ -9140,7 +9383,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
         <v>21</v>
       </c>
@@ -9158,7 +9401,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B30" s="16"/>
       <c r="F30" s="1">
         <f>F29/1000</f>
@@ -9168,7 +9411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
@@ -9179,7 +9422,7 @@
       <c r="J31" s="23"/>
       <c r="K31" s="23"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B32" s="18"/>
       <c r="C32" s="22" t="s">
         <v>8</v>
@@ -9218,7 +9461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="17" t="s">
         <v>1</v>
       </c>
@@ -9271,7 +9514,7 @@
         <v>1.1129250000000004</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="s">
         <v>2</v>
       </c>
@@ -9312,7 +9555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -9324,7 +9567,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="19"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C38" s="36" t="s">
         <v>56</v>
       </c>
@@ -9336,7 +9579,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
     </row>

--- a/Thời gian thao tác.xlsx
+++ b/Thời gian thao tác.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="139">
   <si>
     <t>-</t>
   </si>
@@ -426,9 +426,6 @@
     <t xml:space="preserve"> Không thể thay đổi,cập nhật được vị trí mã thiết bị trên</t>
   </si>
   <si>
-    <t>Nhập liệu thủ công để tổng hợp ký luc</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vị trí xe đẩy bảng thường không được sắp xếp theo thứ </t>
   </si>
   <si>
@@ -438,16 +435,34 @@
     <t xml:space="preserve">Chưa có biểu thị thứ tự số đặt để tại khu vực quản lý </t>
   </si>
   <si>
-    <t>tự của mã xe -&gt; tốn thời gian tìm xe đổi bảng &amp; sắp xếp</t>
-  </si>
-  <si>
-    <t>lại xe</t>
-  </si>
-  <si>
-    <t>layout lại vị trí,diện tích</t>
-  </si>
-  <si>
-    <t>đặt để của từng xe</t>
+    <t xml:space="preserve">tự của mã xe -&gt; tốn thời gian tìm xe đổi bảng </t>
+  </si>
+  <si>
+    <t>Layout lại vị trí, diện tích</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đặt để của từng xe và </t>
+  </si>
+  <si>
+    <t>đánh số thứ tự tương ứng</t>
+  </si>
+  <si>
+    <t>mã xe dưới nền</t>
+  </si>
+  <si>
+    <t>Nhập liệu thủ công  để tổng hợp ký luc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghi chép lại thông tin đổi bảng trên bảng quản lý thường </t>
+  </si>
+  <si>
+    <t>sai sót</t>
+  </si>
+  <si>
+    <t>Ghi chép bằng tay không loại bỏ được sai sót</t>
+  </si>
+  <si>
+    <t>Người thao tác phải ghi nhớ nhiều thông tin để ghi chép</t>
   </si>
 </sst>
 </file>
@@ -707,7 +722,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -852,6 +867,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -897,9 +915,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6624,25 +6642,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C1" s="52">
+      <c r="C1" s="55">
         <v>2023</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52">
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55">
         <v>2024</v>
       </c>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C2">
@@ -6840,28 +6858,28 @@
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C9" s="53">
+      <c r="C9" s="56">
         <v>2023</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="56">
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="59">
         <v>2024</v>
       </c>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C10" s="42" t="s">
@@ -7143,25 +7161,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C1" s="52">
+      <c r="C1" s="55">
         <v>2023</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52">
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55">
         <v>2024</v>
       </c>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C2">
@@ -7353,28 +7371,28 @@
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C9" s="53">
+      <c r="C9" s="56">
         <v>2023</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="56">
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="59">
         <v>2024</v>
       </c>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C10" s="42" t="s">
@@ -7682,61 +7700,61 @@
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="57" t="s">
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="59"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="62"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="59"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="62"/>
       <c r="L7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="60" t="s">
+      <c r="M7" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="62"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="65"/>
       <c r="W7" s="25" t="s">
         <v>19</v>
       </c>
@@ -8530,8 +8548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8657,17 +8675,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:G16"/>
+  <dimension ref="C4:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F11" sqref="F11:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="52.28515625" customWidth="1"/>
-    <col min="5" max="5" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8698,13 +8716,15 @@
       <c r="E5" t="s">
         <v>115</v>
       </c>
-      <c r="F5" s="67"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="68"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="53"/>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7">
@@ -8716,7 +8736,8 @@
       <c r="E7" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="68"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="53"/>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
@@ -8725,74 +8746,103 @@
       <c r="E8" t="s">
         <v>125</v>
       </c>
-      <c r="F8" s="68"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="53"/>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>124</v>
       </c>
-      <c r="F9" s="68"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="53"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>120</v>
       </c>
-      <c r="F10" s="69"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="53"/>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F11" s="67"/>
+        <v>128</v>
+      </c>
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="53"/>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12" s="68"/>
+        <v>127</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="53"/>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F13" s="69"/>
+      <c r="F13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="53"/>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14">
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="54"/>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C15">
         <v>4</v>
       </c>
-      <c r="D14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="67" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" s="68" t="s">
-        <v>133</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G15" s="52"/>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>131</v>
-      </c>
-      <c r="F16" s="69"/>
+        <v>136</v>
+      </c>
+      <c r="E16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="54"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="52"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8835,71 +8885,71 @@
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="57" t="s">
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="59"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="62"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="57" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="59"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="62"/>
       <c r="L7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="60" t="s">
+      <c r="M7" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="62"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="65"/>
       <c r="W7" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="69" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -8934,7 +8984,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="30"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -8959,7 +9009,7 @@
       <c r="W9" s="26"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
+      <c r="A10" s="67"/>
       <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
@@ -8983,13 +9033,13 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
+      <c r="A11" s="67"/>
       <c r="L11" s="10"/>
       <c r="M11" s="11"/>
       <c r="W11" s="10"/>
     </row>
     <row r="12" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
+      <c r="A12" s="67"/>
       <c r="B12" s="9" t="s">
         <v>44</v>
       </c>
@@ -9022,7 +9072,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
+      <c r="A13" s="67"/>
       <c r="B13" s="30"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -9047,7 +9097,7 @@
       <c r="W13" s="26"/>
     </row>
     <row r="14" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
+      <c r="A14" s="67"/>
       <c r="B14" s="9" t="s">
         <v>45</v>
       </c>
@@ -9080,7 +9130,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="30"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -9105,7 +9155,7 @@
       <c r="W15" s="26"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="66" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -9140,7 +9190,7 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
+      <c r="A17" s="67"/>
       <c r="B17" s="30"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -9165,7 +9215,7 @@
       <c r="W17" s="26"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
+      <c r="A18" s="67"/>
       <c r="B18" s="2" t="s">
         <v>51</v>
       </c>
@@ -9189,13 +9239,13 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
+      <c r="A19" s="67"/>
       <c r="L19" s="10"/>
       <c r="M19" s="11"/>
       <c r="W19" s="10"/>
     </row>
     <row r="20" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
+      <c r="A20" s="67"/>
       <c r="B20" s="9" t="s">
         <v>54</v>
       </c>
@@ -9228,7 +9278,7 @@
       </c>
     </row>
     <row r="21" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="30"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -9253,7 +9303,7 @@
       <c r="W21" s="26"/>
     </row>
     <row r="22" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="9" t="s">
         <v>45</v>
       </c>
@@ -9286,7 +9336,7 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="30"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>

--- a/Thời gian thao tác.xlsx
+++ b/Thời gian thao tác.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457591EE-9917-4547-9BA3-EB83EA08BC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="495" windowWidth="27960" windowHeight="17505" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -14,7 +15,7 @@
     <sheet name="Phân tích nguyên nhân" sheetId="6" r:id="rId5"/>
     <sheet name="Topic 2" sheetId="2" state="hidden" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -423,9 +424,6 @@
     <t xml:space="preserve">bảng quản lý tại ngay thời điểm chuyển đổi bảng </t>
   </si>
   <si>
-    <t xml:space="preserve"> Không thể thay đổi,cập nhật được vị trí mã thiết bị trên</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vị trí xe đẩy bảng thường không được sắp xếp theo thứ </t>
   </si>
   <si>
@@ -463,12 +461,15 @@
   </si>
   <si>
     <t>Người thao tác phải ghi nhớ nhiều thông tin để ghi chép</t>
+  </si>
+  <si>
+    <t>Không thể thay đổi,cập nhật được vị trí mã thiết bị trên</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -870,6 +871,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -915,14 +919,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
-    <cellStyle name="標準_2.１０上期　改善フォロー表(生管)" xfId="1"/>
+    <cellStyle name="標準_2.１０上期　改善フォロー表(生管)" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1023,7 +1024,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-VN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1598,7 +1599,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-VN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1637,7 +1638,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-VN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="295001216"/>
@@ -1682,7 +1683,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-VN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="294912320"/>
@@ -1722,7 +1723,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-VN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="401228480"/>
@@ -1793,7 +1794,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-VN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1836,7 +1837,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-VN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -1856,11 +1857,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-VN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1886,7 +1886,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-VN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1916,7 +1916,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-VN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2283,7 +2283,7 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-VN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="124847392"/>
@@ -2367,7 +2367,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-VN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2404,7 +2404,7 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-VN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="124845680"/>
@@ -2422,7 +2422,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2430,6 +2429,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2448,7 +2448,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-VN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2535,7 +2535,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-VN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2607,7 +2607,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-VN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -3052,7 +3052,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-VN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3089,7 +3089,7 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-VN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="124845680"/>
@@ -3108,7 +3108,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3116,6 +3115,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3134,7 +3134,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-VN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3191,7 +3191,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3216,7 +3215,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-VN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3568,7 +3567,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-VN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3606,7 +3605,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-VN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2060977632"/>
@@ -3655,7 +3654,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-VN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2060993440"/>
@@ -3700,7 +3699,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-VN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2060988448"/>
@@ -3745,7 +3744,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-VN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2060984704"/>
@@ -3765,7 +3764,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3791,7 +3789,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-VN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3821,7 +3819,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-VN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6099,8 +6097,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2488406" y="3162301"/>
-          <a:ext cx="7207250" cy="5092700"/>
+          <a:off x="2841625" y="3162301"/>
+          <a:ext cx="8064500" cy="5092700"/>
           <a:chOff x="2832100" y="2971801"/>
           <a:chExt cx="8140700" cy="5092700"/>
         </a:xfrm>
@@ -6629,40 +6627,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T17"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C1" s="55">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C1" s="58">
         <v>2023</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55">
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58">
         <v>2024</v>
       </c>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-    </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C2">
         <v>4</v>
       </c>
@@ -6718,7 +6716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>123</v>
       </c>
@@ -6777,7 +6775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C4">
         <f>B3+C3</f>
         <v>126</v>
@@ -6851,37 +6849,37 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C6">
         <f>9.7/60</f>
         <v>0.16166666666666665</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C9" s="56">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C9" s="59">
         <v>2023</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="59">
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="62">
         <v>2024</v>
       </c>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C10" s="42" t="s">
         <v>74</v>
       </c>
@@ -6937,7 +6935,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>70</v>
       </c>
@@ -6996,7 +6994,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>69</v>
       </c>
@@ -7055,7 +7053,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>84</v>
       </c>
@@ -7132,7 +7130,7 @@
         <v>24.734999999999999</v>
       </c>
     </row>
-    <row r="17" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="19:19" x14ac:dyDescent="0.2">
       <c r="S17" s="44"/>
     </row>
   </sheetData>
@@ -7148,40 +7146,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:T17"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C1" s="55">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C1" s="58">
         <v>2023</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55">
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58">
         <v>2024</v>
       </c>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-    </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C2">
         <v>4</v>
       </c>
@@ -7237,7 +7235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>123</v>
       </c>
@@ -7296,7 +7294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C4">
         <f>B3+C3</f>
         <v>126</v>
@@ -7370,31 +7368,31 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C9" s="56">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C9" s="59">
         <v>2023</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="59">
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="62">
         <v>2024</v>
       </c>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C10" s="42" t="s">
         <v>74</v>
       </c>
@@ -7450,7 +7448,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>70</v>
       </c>
@@ -7509,7 +7507,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>69</v>
       </c>
@@ -7568,7 +7566,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>84</v>
       </c>
@@ -7645,7 +7643,7 @@
         <v>61.599999999999994</v>
       </c>
     </row>
-    <row r="17" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="19:19" x14ac:dyDescent="0.2">
       <c r="S17" s="44"/>
     </row>
   </sheetData>
@@ -7661,29 +7659,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:W68"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="8.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="23" width="8.85546875" style="1" customWidth="1"/>
-    <col min="24" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="8.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="23" width="8.83203125" style="1" customWidth="1"/>
+    <col min="24" max="28" width="9.1640625" style="1"/>
+    <col min="29" max="29" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="19" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>32</v>
       </c>
@@ -7691,75 +7689,75 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="60" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B6" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="60" t="s">
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="62"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="60" t="s">
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="65"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B7" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="62"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="65"/>
       <c r="L7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="63" t="s">
+      <c r="M7" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="65"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="68"/>
       <c r="W7" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="6" t="s">
         <v>33</v>
@@ -7792,7 +7790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="30"/>
       <c r="C9" s="12"/>
@@ -7817,7 +7815,7 @@
       <c r="V9" s="12"/>
       <c r="W9" s="26"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>35</v>
@@ -7841,13 +7839,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="L11" s="10"/>
       <c r="M11" s="11"/>
       <c r="W11" s="10"/>
     </row>
-    <row r="12" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>37</v>
       </c>
@@ -7879,7 +7877,7 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="30"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -7903,7 +7901,7 @@
       <c r="V13" s="12"/>
       <c r="W13" s="26"/>
     </row>
-    <row r="14" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
         <v>65</v>
       </c>
@@ -7919,7 +7917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="11"/>
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
@@ -7927,7 +7925,7 @@
       <c r="M15" s="11"/>
       <c r="W15" s="26"/>
     </row>
-    <row r="16" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13" t="s">
         <v>20</v>
       </c>
@@ -7961,12 +7959,12 @@
         <v>9.15</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B19" s="16" t="s">
         <v>22</v>
       </c>
@@ -7981,7 +7979,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
         <v>25</v>
       </c>
@@ -8000,7 +7998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B21" s="16" t="s">
         <v>21</v>
       </c>
@@ -8018,7 +8016,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" s="16"/>
       <c r="F22" s="1">
         <f>F21/1000</f>
@@ -8028,7 +8026,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
@@ -8042,7 +8040,7 @@
         <v>442.06670000000003</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" s="18"/>
       <c r="C24" s="22" t="s">
         <v>8</v>
@@ -8086,7 +8084,7 @@
       </c>
       <c r="V24" s="46"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" s="17" t="s">
         <v>1</v>
       </c>
@@ -8143,7 +8141,7 @@
         <v>526.06670000000008</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" s="18" t="s">
         <v>2</v>
       </c>
@@ -8184,7 +8182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -8196,7 +8194,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="19"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E29" s="36" t="s">
         <v>56</v>
       </c>
@@ -8214,7 +8212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E30" s="40" t="s">
         <v>60</v>
       </c>
@@ -8225,7 +8223,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E31" s="1" t="s">
         <v>61</v>
       </c>
@@ -8237,7 +8235,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E32" s="34" t="s">
         <v>66</v>
       </c>
@@ -8248,7 +8246,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E33" s="1" t="s">
         <v>62</v>
       </c>
@@ -8256,7 +8254,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E34" s="1" t="s">
         <v>63</v>
       </c>
@@ -8267,7 +8265,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E35" s="1" t="s">
         <v>64</v>
       </c>
@@ -8276,7 +8274,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="36" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:16" x14ac:dyDescent="0.2">
       <c r="H36" s="1">
         <f>SUM(H33:H35)</f>
         <v>560</v>
@@ -8298,19 +8296,16 @@
         <v>470.9666666666667</v>
       </c>
     </row>
-    <row r="42" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:16" x14ac:dyDescent="0.2">
       <c r="H42" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="N42" s="41">
-        <f>6.2-0.8</f>
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="43" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="N42" s="41"/>
+    </row>
+    <row r="43" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F43" s="1" t="s">
         <v>87</v>
       </c>
@@ -8325,8 +8320,13 @@
         <f>1/60*F19</f>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="44" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="J43" s="41">
+        <f>H43-I43</f>
+        <v>17.5</v>
+      </c>
+      <c r="P43" s="35"/>
+    </row>
+    <row r="44" spans="5:16" x14ac:dyDescent="0.2">
       <c r="G44" s="1" t="s">
         <v>62</v>
       </c>
@@ -8338,8 +8338,13 @@
         <f>(H33/12)*(1/60)</f>
         <v>0.19444444444444442</v>
       </c>
-    </row>
-    <row r="45" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="J44" s="41">
+        <f t="shared" ref="J44:J46" si="1">H44-I44</f>
+        <v>1.3611111111111109</v>
+      </c>
+      <c r="P44" s="35"/>
+    </row>
+    <row r="45" spans="5:16" x14ac:dyDescent="0.2">
       <c r="G45" s="1" t="s">
         <v>91</v>
       </c>
@@ -8351,8 +8356,13 @@
         <f>(H34/12)*(1/60)</f>
         <v>0.19444444444444442</v>
       </c>
-    </row>
-    <row r="46" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="J45" s="41">
+        <f t="shared" si="1"/>
+        <v>1.3611111111111109</v>
+      </c>
+      <c r="P45" s="35"/>
+    </row>
+    <row r="46" spans="5:16" x14ac:dyDescent="0.2">
       <c r="G46" s="1" t="s">
         <v>92</v>
       </c>
@@ -8364,8 +8374,12 @@
         <f>(H35/12)*(1/60)</f>
         <v>0.38888888888888884</v>
       </c>
-    </row>
-    <row r="47" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="J46" s="41">
+        <f t="shared" si="1"/>
+        <v>2.7222222222222219</v>
+      </c>
+    </row>
+    <row r="47" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F47" s="1" t="s">
         <v>93</v>
       </c>
@@ -8377,7 +8391,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="48" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F48" s="1" t="s">
         <v>94</v>
       </c>
@@ -8390,7 +8404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F49" s="1" t="s">
         <v>95</v>
       </c>
@@ -8402,7 +8416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F50" s="1" t="s">
         <v>83</v>
       </c>
@@ -8413,7 +8427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F51" s="1" t="s">
         <v>96</v>
       </c>
@@ -8426,10 +8440,10 @@
         <v>21.777777777777779</v>
       </c>
     </row>
-    <row r="54" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:11" x14ac:dyDescent="0.2">
       <c r="I54" s="46"/>
     </row>
-    <row r="55" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:11" x14ac:dyDescent="0.2">
       <c r="I55" s="41">
         <f>H51-I51</f>
         <v>38.844444444444449</v>
@@ -8439,10 +8453,10 @@
         <v>466.13333333333338</v>
       </c>
     </row>
-    <row r="58" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:11" x14ac:dyDescent="0.2">
       <c r="G58" s="51"/>
     </row>
-    <row r="60" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F60" s="1" t="s">
         <v>62</v>
       </c>
@@ -8450,7 +8464,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="61" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F61" s="1" t="s">
         <v>91</v>
       </c>
@@ -8464,7 +8478,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F62" s="1" t="s">
         <v>92</v>
       </c>
@@ -8472,7 +8486,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="63" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F63" s="1" t="s">
         <v>61</v>
       </c>
@@ -8481,7 +8495,7 @@
         <v>8.3999999999999986</v>
       </c>
     </row>
-    <row r="64" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F64" s="1" t="s">
         <v>105</v>
       </c>
@@ -8489,7 +8503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F65" s="1" t="s">
         <v>102</v>
       </c>
@@ -8498,7 +8512,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="66" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F66" s="1" t="s">
         <v>103</v>
       </c>
@@ -8507,7 +8521,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="67" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F67" s="1" t="s">
         <v>104</v>
       </c>
@@ -8523,7 +8537,7 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="68" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F68" s="1" t="s">
         <v>106</v>
       </c>
@@ -8545,23 +8559,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:F9"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D5" sqref="D5:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C3" s="48" t="s">
         <v>85</v>
       </c>
@@ -8575,7 +8589,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C4" s="48"/>
       <c r="D4" s="48"/>
       <c r="E4" s="48"/>
@@ -8583,7 +8597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C5" s="48" t="s">
         <v>87</v>
       </c>
@@ -8599,7 +8613,7 @@
         <v>0.43234323432343236</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C6" s="48" t="s">
         <v>98</v>
       </c>
@@ -8615,7 +8629,7 @@
         <v>0.69471947194719474</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C7" s="48" t="s">
         <v>95</v>
       </c>
@@ -8631,7 +8645,7 @@
         <v>0.85973597359735976</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C8" s="48" t="s">
         <v>93</v>
       </c>
@@ -8647,7 +8661,7 @@
         <v>0.98349834983498352</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="50" t="s">
         <v>101</v>
       </c>
@@ -8674,22 +8688,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C4:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="52.28515625" customWidth="1"/>
-    <col min="5" max="5" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.33203125" customWidth="1"/>
+    <col min="5" max="5" width="51.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C4" s="48" t="s">
         <v>109</v>
       </c>
@@ -8706,7 +8720,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>1</v>
       </c>
@@ -8716,17 +8730,17 @@
       <c r="E5" t="s">
         <v>115</v>
       </c>
-      <c r="F5" s="70"/>
+      <c r="F5" s="55"/>
       <c r="G5" s="52"/>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="71"/>
+      <c r="F6" s="56"/>
       <c r="G6" s="53"/>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>2</v>
       </c>
@@ -8736,94 +8750,94 @@
       <c r="E7" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="71"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="53"/>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>119</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="71"/>
+        <v>138</v>
+      </c>
+      <c r="F8" s="56"/>
       <c r="G8" s="53"/>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>124</v>
       </c>
-      <c r="F9" s="71"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="53"/>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
         <v>120</v>
       </c>
-      <c r="F10" s="72"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="53"/>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="53"/>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" t="s">
         <v>126</v>
       </c>
-      <c r="E11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>130</v>
       </c>
-      <c r="G11" s="53"/>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" s="53"/>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="53"/>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
+      <c r="G13" s="53"/>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="53"/>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F14" t="s">
-        <v>133</v>
-      </c>
       <c r="G14" s="54"/>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="52"/>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
         <v>135</v>
       </c>
-      <c r="E15" t="s">
-        <v>138</v>
-      </c>
-      <c r="G15" s="52"/>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>136</v>
       </c>
-      <c r="E16" t="s">
-        <v>137</v>
-      </c>
       <c r="G16" s="54"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C17">
         <v>5</v>
       </c>
@@ -8835,12 +8849,12 @@
       </c>
       <c r="G17" s="52"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>123</v>
       </c>
       <c r="E18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G18" s="54"/>
     </row>
@@ -8851,24 +8865,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:W39"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
-    <col min="3" max="23" width="8.85546875" style="1" customWidth="1"/>
-    <col min="24" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3" max="23" width="8.83203125" style="1" customWidth="1"/>
+    <col min="24" max="28" width="9.1640625" style="1"/>
+    <col min="29" max="29" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="19" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>40</v>
       </c>
@@ -8876,80 +8890,80 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="60" t="s">
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="62"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
-      <c r="B7" s="60" t="s">
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="65"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="71"/>
+      <c r="B7" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="62"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="65"/>
       <c r="L7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="63" t="s">
+      <c r="M7" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="65"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="68"/>
       <c r="W7" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="72" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -8983,8 +8997,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="70"/>
       <c r="B9" s="30"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -9008,8 +9022,8 @@
       <c r="V9" s="12"/>
       <c r="W9" s="26"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="70"/>
       <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
@@ -9032,14 +9046,14 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="70"/>
       <c r="L11" s="10"/>
       <c r="M11" s="11"/>
       <c r="W11" s="10"/>
     </row>
-    <row r="12" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
+    <row r="12" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="70"/>
       <c r="B12" s="9" t="s">
         <v>44</v>
       </c>
@@ -9071,8 +9085,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
+    <row r="13" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="70"/>
       <c r="B13" s="30"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -9096,8 +9110,8 @@
       <c r="V13" s="12"/>
       <c r="W13" s="26"/>
     </row>
-    <row r="14" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
+    <row r="14" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="70"/>
       <c r="B14" s="9" t="s">
         <v>45</v>
       </c>
@@ -9129,8 +9143,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="68"/>
+    <row r="15" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="71"/>
       <c r="B15" s="30"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -9154,8 +9168,8 @@
       <c r="V15" s="12"/>
       <c r="W15" s="26"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="66" t="s">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="69" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -9189,8 +9203,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="70"/>
       <c r="B17" s="30"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -9214,8 +9228,8 @@
       <c r="V17" s="33"/>
       <c r="W17" s="26"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="67"/>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="70"/>
       <c r="B18" s="2" t="s">
         <v>51</v>
       </c>
@@ -9238,14 +9252,14 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="70"/>
       <c r="L19" s="10"/>
       <c r="M19" s="11"/>
       <c r="W19" s="10"/>
     </row>
-    <row r="20" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
+    <row r="20" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="70"/>
       <c r="B20" s="9" t="s">
         <v>54</v>
       </c>
@@ -9277,8 +9291,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
+    <row r="21" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="70"/>
       <c r="B21" s="30"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -9302,8 +9316,8 @@
       <c r="V21" s="12"/>
       <c r="W21" s="26"/>
     </row>
-    <row r="22" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
+    <row r="22" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="70"/>
       <c r="B22" s="9" t="s">
         <v>45</v>
       </c>
@@ -9335,8 +9349,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="68"/>
+    <row r="23" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="71"/>
       <c r="B23" s="30"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -9360,7 +9374,7 @@
       <c r="V23" s="12"/>
       <c r="W23" s="26"/>
     </row>
-    <row r="24" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="13" t="s">
         <v>20</v>
       </c>
@@ -9394,12 +9408,12 @@
         <v>31.45</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B26" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B27" s="16" t="s">
         <v>22</v>
       </c>
@@ -9414,7 +9428,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B28" s="16" t="s">
         <v>25</v>
       </c>
@@ -9433,7 +9447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B29" s="16" t="s">
         <v>21</v>
       </c>
@@ -9451,7 +9465,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B30" s="16"/>
       <c r="F30" s="1">
         <f>F29/1000</f>
@@ -9461,7 +9475,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
@@ -9472,7 +9486,7 @@
       <c r="J31" s="23"/>
       <c r="K31" s="23"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B32" s="18"/>
       <c r="C32" s="22" t="s">
         <v>8</v>
@@ -9511,7 +9525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="17" t="s">
         <v>1</v>
       </c>
@@ -9564,7 +9578,7 @@
         <v>1.1129250000000004</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="18" t="s">
         <v>2</v>
       </c>
@@ -9605,7 +9619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -9617,7 +9631,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="19"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="36" t="s">
         <v>56</v>
       </c>
@@ -9629,7 +9643,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
     </row>

--- a/Thời gian thao tác.xlsx
+++ b/Thời gian thao tác.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457591EE-9917-4547-9BA3-EB83EA08BC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -15,7 +14,7 @@
     <sheet name="Phân tích nguyên nhân" sheetId="6" r:id="rId5"/>
     <sheet name="Topic 2" sheetId="2" state="hidden" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="141">
   <si>
     <t>-</t>
   </si>
@@ -465,16 +464,23 @@
   <si>
     <t>Không thể thay đổi,cập nhật được vị trí mã thiết bị trên</t>
   </si>
+  <si>
+    <t>Mục Tiêu</t>
+  </si>
+  <si>
+    <t>Trước cải thiện
+(AVE: 7~9/2024)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,6 +534,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -723,7 +735,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -919,11 +931,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
-    <cellStyle name="標準_2.１０上期　改善フォロー表(生管)" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_2.１０上期　改善フォロー表(生管)" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1024,7 +1043,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-VN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1599,7 +1618,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-VN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1638,7 +1657,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="295001216"/>
@@ -1683,7 +1702,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="294912320"/>
@@ -1723,7 +1742,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="401228480"/>
@@ -1794,7 +1813,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-VN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1837,7 +1856,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -1857,10 +1876,11 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1886,7 +1906,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-VN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1916,7 +1936,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-VN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2283,7 +2303,7 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="124847392"/>
@@ -2367,7 +2387,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-VN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2404,7 +2424,7 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="124845680"/>
@@ -2422,6 +2442,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2429,7 +2450,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2448,7 +2468,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-VN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2535,7 +2555,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-VN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2607,7 +2627,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-VN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -3052,7 +3072,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-VN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3089,7 +3109,7 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="124845680"/>
@@ -3108,6 +3128,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3115,7 +3136,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3134,7 +3154,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-VN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3191,6 +3211,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3215,7 +3236,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-VN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3567,7 +3588,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-VN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3605,7 +3626,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2060977632"/>
@@ -3654,7 +3675,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2060993440"/>
@@ -3699,7 +3720,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2060988448"/>
@@ -3744,7 +3765,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2060984704"/>
@@ -3764,6 +3785,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3789,7 +3811,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-VN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3819,7 +3841,452 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-VN"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Giờ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> công nghiệp vụ chuyển đổi bảng MPB</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17763188976377953"/>
+          <c:y val="2.7031768865909352E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6580927384076991E-2"/>
+          <c:y val="0.20887833970814815"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.64782135801647023"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-02A2-460D-A0DD-C2B04D3E3C01}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pareto!$I$3:$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Trước cải thiện
+(AVE: 7~9/2024)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mục Tiêu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pareto!$J$3:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-02A2-460D-A0DD-C2B04D3E3C01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1892999983"/>
+        <c:axId val="1892987087"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1892999983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MH/tháng</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1943132108486439E-2"/>
+              <c:y val="0.11102151199720986"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1892987087"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1892987087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1892999983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3990,6 +4457,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5526,6 +6033,509 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6097,8 +7107,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2841625" y="3162301"/>
-          <a:ext cx="8064500" cy="5092700"/>
+          <a:off x="2488406" y="3162301"/>
+          <a:ext cx="7207250" cy="5092700"/>
           <a:chOff x="2832100" y="2971801"/>
           <a:chExt cx="8140700" cy="5092700"/>
         </a:xfrm>
@@ -6360,6 +7370,260 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>597477</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>91786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>597477</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>167986</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>526838</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>135060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>223770</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>14793</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Right Arrow 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1679688">
+          <a:off x="10735906" y="1252083"/>
+          <a:ext cx="1982932" cy="451233"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>623454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>467591</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Explosion 1 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12209318" y="1004454"/>
+          <a:ext cx="1515341" cy="909205"/>
+        </a:xfrm>
+        <a:prstGeom prst="irregularSeal1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" anchor="ctr" anchorCtr="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Giảm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 57%</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(35 MH)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6627,19 +7891,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C1" s="58">
         <v>2023</v>
       </c>
@@ -6660,7 +7924,7 @@
       <c r="P1" s="58"/>
       <c r="Q1" s="58"/>
     </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>4</v>
       </c>
@@ -6716,7 +7980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>123</v>
       </c>
@@ -6775,7 +8039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C4">
         <f>B3+C3</f>
         <v>126</v>
@@ -6849,13 +8113,13 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C6">
         <f>9.7/60</f>
         <v>0.16166666666666665</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C9" s="59">
         <v>2023</v>
       </c>
@@ -6879,7 +8143,7 @@
       <c r="S9" s="62"/>
       <c r="T9" s="62"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C10" s="42" t="s">
         <v>74</v>
       </c>
@@ -6935,7 +8199,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>70</v>
       </c>
@@ -6994,7 +8258,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>69</v>
       </c>
@@ -7053,7 +8317,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>84</v>
       </c>
@@ -7130,7 +8394,7 @@
         <v>24.734999999999999</v>
       </c>
     </row>
-    <row r="17" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S17" s="44"/>
     </row>
   </sheetData>
@@ -7146,19 +8410,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13:T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C1" s="58">
         <v>2023</v>
       </c>
@@ -7179,7 +8443,7 @@
       <c r="P1" s="58"/>
       <c r="Q1" s="58"/>
     </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>4</v>
       </c>
@@ -7235,7 +8499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>123</v>
       </c>
@@ -7294,7 +8558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C4">
         <f>B3+C3</f>
         <v>126</v>
@@ -7368,7 +8632,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C9" s="59">
         <v>2023</v>
       </c>
@@ -7392,7 +8656,7 @@
       <c r="S9" s="62"/>
       <c r="T9" s="62"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C10" s="42" t="s">
         <v>74</v>
       </c>
@@ -7448,7 +8712,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>70</v>
       </c>
@@ -7507,7 +8771,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>69</v>
       </c>
@@ -7566,7 +8830,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>84</v>
       </c>
@@ -7643,7 +8907,7 @@
         <v>61.599999999999994</v>
       </c>
     </row>
-    <row r="17" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S17" s="44"/>
     </row>
   </sheetData>
@@ -7659,29 +8923,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W68"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="8.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="23" width="8.83203125" style="1" customWidth="1"/>
-    <col min="24" max="28" width="9.1640625" style="1"/>
-    <col min="29" max="29" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="6.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="8.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="23" width="8.85546875" style="1" customWidth="1"/>
+    <col min="24" max="28" width="9.140625" style="1"/>
+    <col min="29" max="29" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
         <v>32</v>
       </c>
@@ -7689,15 +8953,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B6" s="63" t="s">
         <v>16</v>
       </c>
@@ -7725,7 +8989,7 @@
       <c r="V6" s="64"/>
       <c r="W6" s="65"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B7" s="63" t="s">
         <v>18</v>
       </c>
@@ -7757,7 +9021,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="6" t="s">
         <v>33</v>
@@ -7790,7 +9054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="30"/>
       <c r="C9" s="12"/>
@@ -7815,7 +9079,7 @@
       <c r="V9" s="12"/>
       <c r="W9" s="26"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>35</v>
@@ -7839,13 +9103,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="L11" s="10"/>
       <c r="M11" s="11"/>
       <c r="W11" s="10"/>
     </row>
-    <row r="12" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>37</v>
       </c>
@@ -7877,7 +9141,7 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="30"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -7901,7 +9165,7 @@
       <c r="V13" s="12"/>
       <c r="W13" s="26"/>
     </row>
-    <row r="14" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>65</v>
       </c>
@@ -7917,7 +9181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
@@ -7925,7 +9189,7 @@
       <c r="M15" s="11"/>
       <c r="W15" s="26"/>
     </row>
-    <row r="16" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
         <v>20</v>
       </c>
@@ -7959,12 +9223,12 @@
         <v>9.15</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
         <v>22</v>
       </c>
@@ -7979,7 +9243,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>25</v>
       </c>
@@ -7998,7 +9262,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
         <v>21</v>
       </c>
@@ -8016,7 +9280,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="16"/>
       <c r="F22" s="1">
         <f>F21/1000</f>
@@ -8026,7 +9290,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
@@ -8040,7 +9304,7 @@
         <v>442.06670000000003</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
       <c r="C24" s="22" t="s">
         <v>8</v>
@@ -8084,7 +9348,7 @@
       </c>
       <c r="V24" s="46"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="17" t="s">
         <v>1</v>
       </c>
@@ -8141,7 +9405,7 @@
         <v>526.06670000000008</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
         <v>2</v>
       </c>
@@ -8182,7 +9446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -8194,7 +9458,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="19"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E29" s="36" t="s">
         <v>56</v>
       </c>
@@ -8212,7 +9476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E30" s="40" t="s">
         <v>60</v>
       </c>
@@ -8223,7 +9487,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E31" s="1" t="s">
         <v>61</v>
       </c>
@@ -8235,7 +9499,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E32" s="34" t="s">
         <v>66</v>
       </c>
@@ -8246,7 +9510,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E33" s="1" t="s">
         <v>62</v>
       </c>
@@ -8254,7 +9518,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E34" s="1" t="s">
         <v>63</v>
       </c>
@@ -8265,7 +9529,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E35" s="1" t="s">
         <v>64</v>
       </c>
@@ -8274,7 +9538,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="36" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H36" s="1">
         <f>SUM(H33:H35)</f>
         <v>560</v>
@@ -8296,7 +9560,7 @@
         <v>470.9666666666667</v>
       </c>
     </row>
-    <row r="42" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H42" s="1" t="s">
         <v>88</v>
       </c>
@@ -8305,7 +9569,7 @@
       </c>
       <c r="N42" s="41"/>
     </row>
-    <row r="43" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F43" s="1" t="s">
         <v>87</v>
       </c>
@@ -8317,16 +9581,16 @@
         <v>20</v>
       </c>
       <c r="I43" s="38">
-        <f>1/60*F19</f>
-        <v>2.5</v>
+        <f>0.5/60*F19</f>
+        <v>1.25</v>
       </c>
       <c r="J43" s="41">
         <f>H43-I43</f>
-        <v>17.5</v>
+        <v>18.75</v>
       </c>
       <c r="P43" s="35"/>
     </row>
-    <row r="44" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G44" s="1" t="s">
         <v>62</v>
       </c>
@@ -8335,16 +9599,16 @@
         <v>1.5555555555555554</v>
       </c>
       <c r="I44" s="41">
-        <f>(H33/12)*(1/60)</f>
-        <v>0.19444444444444442</v>
+        <f>(H33/12)*(0.5/60)</f>
+        <v>9.722222222222221E-2</v>
       </c>
       <c r="J44" s="41">
         <f t="shared" ref="J44:J46" si="1">H44-I44</f>
-        <v>1.3611111111111109</v>
+        <v>1.458333333333333</v>
       </c>
       <c r="P44" s="35"/>
     </row>
-    <row r="45" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G45" s="1" t="s">
         <v>91</v>
       </c>
@@ -8353,16 +9617,16 @@
         <v>1.5555555555555554</v>
       </c>
       <c r="I45" s="41">
-        <f>(H34/12)*(1/60)</f>
-        <v>0.19444444444444442</v>
+        <f>(H34/12)*(0.5/60)</f>
+        <v>9.722222222222221E-2</v>
       </c>
       <c r="J45" s="41">
         <f t="shared" si="1"/>
-        <v>1.3611111111111109</v>
+        <v>1.458333333333333</v>
       </c>
       <c r="P45" s="35"/>
     </row>
-    <row r="46" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G46" s="1" t="s">
         <v>92</v>
       </c>
@@ -8371,15 +9635,15 @@
         <v>3.1111111111111107</v>
       </c>
       <c r="I46" s="41">
-        <f>(H35/12)*(1/60)</f>
-        <v>0.38888888888888884</v>
+        <f>(H35/12)*(0.5/60)</f>
+        <v>0.19444444444444442</v>
       </c>
       <c r="J46" s="41">
         <f t="shared" si="1"/>
-        <v>2.7222222222222219</v>
-      </c>
-    </row>
-    <row r="47" spans="5:16" x14ac:dyDescent="0.2">
+        <v>2.9166666666666661</v>
+      </c>
+    </row>
+    <row r="47" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F47" s="1" t="s">
         <v>93</v>
       </c>
@@ -8391,7 +9655,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="48" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F48" s="1" t="s">
         <v>94</v>
       </c>
@@ -8404,7 +9668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F49" s="1" t="s">
         <v>95</v>
       </c>
@@ -8416,7 +9680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F50" s="1" t="s">
         <v>83</v>
       </c>
@@ -8427,7 +9691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F51" s="1" t="s">
         <v>96</v>
       </c>
@@ -8437,26 +9701,26 @@
       </c>
       <c r="I51" s="41">
         <f>SUM(I43:I50)</f>
-        <v>21.777777777777779</v>
-      </c>
-    </row>
-    <row r="54" spans="6:11" x14ac:dyDescent="0.2">
+        <v>20.138888888888889</v>
+      </c>
+    </row>
+    <row r="54" spans="6:11" x14ac:dyDescent="0.25">
       <c r="I54" s="46"/>
     </row>
-    <row r="55" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:11" x14ac:dyDescent="0.25">
       <c r="I55" s="41">
         <f>H51-I51</f>
-        <v>38.844444444444449</v>
+        <v>40.483333333333334</v>
       </c>
       <c r="K55" s="1">
         <f>I55*12</f>
-        <v>466.13333333333338</v>
-      </c>
-    </row>
-    <row r="58" spans="6:11" x14ac:dyDescent="0.2">
+        <v>485.8</v>
+      </c>
+    </row>
+    <row r="58" spans="6:11" x14ac:dyDescent="0.25">
       <c r="G58" s="51"/>
     </row>
-    <row r="60" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F60" s="1" t="s">
         <v>62</v>
       </c>
@@ -8464,7 +9728,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="61" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F61" s="1" t="s">
         <v>91</v>
       </c>
@@ -8478,7 +9742,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F62" s="1" t="s">
         <v>92</v>
       </c>
@@ -8486,7 +9750,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="63" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F63" s="1" t="s">
         <v>61</v>
       </c>
@@ -8495,7 +9759,7 @@
         <v>8.3999999999999986</v>
       </c>
     </row>
-    <row r="64" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F64" s="1" t="s">
         <v>105</v>
       </c>
@@ -8503,7 +9767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F65" s="1" t="s">
         <v>102</v>
       </c>
@@ -8512,7 +9776,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="66" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F66" s="1" t="s">
         <v>103</v>
       </c>
@@ -8521,7 +9785,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="67" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F67" s="1" t="s">
         <v>104</v>
       </c>
@@ -8537,7 +9801,7 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="68" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F68" s="1" t="s">
         <v>106</v>
       </c>
@@ -8559,23 +9823,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B3:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:K9"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D9"/>
+    <sheetView topLeftCell="F25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" ht="57.75" x14ac:dyDescent="0.25">
       <c r="C3" s="48" t="s">
         <v>85</v>
       </c>
@@ -8588,16 +9852,28 @@
       <c r="F3" s="48" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I3" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3">
+        <v>60.6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C4" s="48"/>
       <c r="D4" s="48"/>
       <c r="E4" s="48"/>
       <c r="F4" s="48">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I4" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="J4">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C5" s="48" t="s">
         <v>87</v>
       </c>
@@ -8613,7 +9889,7 @@
         <v>0.43234323432343236</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C6" s="48" t="s">
         <v>98</v>
       </c>
@@ -8628,8 +9904,9 @@
         <f>E6/$E$9</f>
         <v>0.69471947194719474</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="K6" s="73"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="48" t="s">
         <v>95</v>
       </c>
@@ -8645,7 +9922,7 @@
         <v>0.85973597359735976</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" s="48" t="s">
         <v>93</v>
       </c>
@@ -8661,7 +9938,7 @@
         <v>0.98349834983498352</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="50" t="s">
         <v>101</v>
       </c>
@@ -8688,22 +9965,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="52.33203125" customWidth="1"/>
-    <col min="5" max="5" width="51.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.28515625" customWidth="1"/>
+    <col min="5" max="5" width="51.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" s="48" t="s">
         <v>109</v>
       </c>
@@ -8720,7 +9997,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>1</v>
       </c>
@@ -8733,14 +10010,14 @@
       <c r="F5" s="55"/>
       <c r="G5" s="52"/>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>114</v>
       </c>
       <c r="F6" s="56"/>
       <c r="G6" s="53"/>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>2</v>
       </c>
@@ -8753,7 +10030,7 @@
       <c r="F7" s="56"/>
       <c r="G7" s="53"/>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>119</v>
       </c>
@@ -8763,21 +10040,21 @@
       <c r="F8" s="56"/>
       <c r="G8" s="53"/>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>124</v>
       </c>
       <c r="F9" s="56"/>
       <c r="G9" s="53"/>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>120</v>
       </c>
       <c r="F10" s="57"/>
       <c r="G10" s="53"/>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>3</v>
       </c>
@@ -8792,7 +10069,7 @@
       </c>
       <c r="G11" s="53"/>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>128</v>
       </c>
@@ -8804,19 +10081,19 @@
       </c>
       <c r="G12" s="53"/>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>131</v>
       </c>
       <c r="G13" s="53"/>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>132</v>
       </c>
       <c r="G14" s="54"/>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>4</v>
       </c>
@@ -8828,7 +10105,7 @@
       </c>
       <c r="G15" s="52"/>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>135</v>
       </c>
@@ -8837,7 +10114,7 @@
       </c>
       <c r="G16" s="54"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>5</v>
       </c>
@@ -8849,7 +10126,7 @@
       </c>
       <c r="G17" s="52"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>123</v>
       </c>
@@ -8865,24 +10142,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W39"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
-    <col min="3" max="23" width="8.83203125" style="1" customWidth="1"/>
-    <col min="24" max="28" width="9.1640625" style="1"/>
-    <col min="29" max="29" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
+    <col min="3" max="23" width="8.85546875" style="1" customWidth="1"/>
+    <col min="24" max="28" width="9.140625" style="1"/>
+    <col min="29" max="29" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
         <v>40</v>
       </c>
@@ -8890,15 +10167,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="69" t="s">
         <v>47</v>
       </c>
@@ -8929,7 +10206,7 @@
       <c r="V6" s="64"/>
       <c r="W6" s="65"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="71"/>
       <c r="B7" s="63" t="s">
         <v>18</v>
@@ -8962,7 +10239,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="72" t="s">
         <v>58</v>
       </c>
@@ -8997,7 +10274,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="70"/>
       <c r="B9" s="30"/>
       <c r="C9" s="12"/>
@@ -9022,7 +10299,7 @@
       <c r="V9" s="12"/>
       <c r="W9" s="26"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="70"/>
       <c r="B10" s="2" t="s">
         <v>42</v>
@@ -9046,13 +10323,13 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="70"/>
       <c r="L11" s="10"/>
       <c r="M11" s="11"/>
       <c r="W11" s="10"/>
     </row>
-    <row r="12" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="70"/>
       <c r="B12" s="9" t="s">
         <v>44</v>
@@ -9085,7 +10362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="70"/>
       <c r="B13" s="30"/>
       <c r="C13" s="12"/>
@@ -9110,7 +10387,7 @@
       <c r="V13" s="12"/>
       <c r="W13" s="26"/>
     </row>
-    <row r="14" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="70"/>
       <c r="B14" s="9" t="s">
         <v>45</v>
@@ -9143,7 +10420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="71"/>
       <c r="B15" s="30"/>
       <c r="C15" s="12"/>
@@ -9168,7 +10445,7 @@
       <c r="V15" s="12"/>
       <c r="W15" s="26"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="69" t="s">
         <v>48</v>
       </c>
@@ -9203,7 +10480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="70"/>
       <c r="B17" s="30"/>
       <c r="C17" s="12"/>
@@ -9228,7 +10505,7 @@
       <c r="V17" s="33"/>
       <c r="W17" s="26"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="70"/>
       <c r="B18" s="2" t="s">
         <v>51</v>
@@ -9252,13 +10529,13 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="70"/>
       <c r="L19" s="10"/>
       <c r="M19" s="11"/>
       <c r="W19" s="10"/>
     </row>
-    <row r="20" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="70"/>
       <c r="B20" s="9" t="s">
         <v>54</v>
@@ -9291,7 +10568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="70"/>
       <c r="B21" s="30"/>
       <c r="C21" s="12"/>
@@ -9316,7 +10593,7 @@
       <c r="V21" s="12"/>
       <c r="W21" s="26"/>
     </row>
-    <row r="22" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="70"/>
       <c r="B22" s="9" t="s">
         <v>45</v>
@@ -9349,7 +10626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="71"/>
       <c r="B23" s="30"/>
       <c r="C23" s="12"/>
@@ -9374,7 +10651,7 @@
       <c r="V23" s="12"/>
       <c r="W23" s="26"/>
     </row>
-    <row r="24" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>20</v>
       </c>
@@ -9408,12 +10685,12 @@
         <v>31.45</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
         <v>22</v>
       </c>
@@ -9428,7 +10705,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
         <v>25</v>
       </c>
@@ -9447,7 +10724,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
         <v>21</v>
       </c>
@@ -9465,7 +10742,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B30" s="16"/>
       <c r="F30" s="1">
         <f>F29/1000</f>
@@ -9475,7 +10752,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
@@ -9486,7 +10763,7 @@
       <c r="J31" s="23"/>
       <c r="K31" s="23"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B32" s="18"/>
       <c r="C32" s="22" t="s">
         <v>8</v>
@@ -9525,7 +10802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="17" t="s">
         <v>1</v>
       </c>
@@ -9578,7 +10855,7 @@
         <v>1.1129250000000004</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="s">
         <v>2</v>
       </c>
@@ -9619,7 +10896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -9631,7 +10908,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="19"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C38" s="36" t="s">
         <v>56</v>
       </c>
@@ -9643,7 +10920,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
     </row>

--- a/Thời gian thao tác.xlsx
+++ b/Thời gian thao tác.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9F61C9-E918-D74F-B454-C6D28B57E667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -14,7 +15,7 @@
     <sheet name="Phân tích nguyên nhân" sheetId="6" r:id="rId5"/>
     <sheet name="Topic 2" sheetId="2" state="hidden" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -331,9 +332,6 @@
     <t>11.67</t>
   </si>
   <si>
-    <t>Ghi chép ký lục</t>
-  </si>
-  <si>
     <t>Lũy kế</t>
   </si>
   <si>
@@ -471,11 +469,14 @@
     <t>Trước cải thiện
 (AVE: 7~9/2024)</t>
   </si>
+  <si>
+    <t>Ghi chép và tổng hợp ký lục</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -886,6 +887,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -931,18 +939,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
-    <cellStyle name="標準_2.１０上期　改善フォロー表(生管)" xfId="1"/>
+    <cellStyle name="標準_2.１０上期　改善フォロー表(生管)" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1043,7 +1044,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-VN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1618,7 +1619,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-VN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1657,7 +1658,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-VN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="295001216"/>
@@ -1702,7 +1703,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-VN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="294912320"/>
@@ -1742,7 +1743,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-VN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="401228480"/>
@@ -1813,7 +1814,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-VN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1856,7 +1857,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-VN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -1876,11 +1877,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-VN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1906,7 +1906,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-VN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1936,7 +1936,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-VN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2303,7 +2303,7 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-VN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="124847392"/>
@@ -2387,7 +2387,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-VN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2424,7 +2424,7 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-VN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="124845680"/>
@@ -2442,7 +2442,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2450,6 +2449,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2468,7 +2468,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-VN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2555,7 +2555,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-VN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2627,7 +2627,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-VN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inBase"/>
@@ -3072,7 +3072,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-VN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3109,7 +3109,7 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-VN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="124845680"/>
@@ -3128,7 +3128,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3136,6 +3135,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3154,7 +3154,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-VN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3211,7 +3211,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3236,7 +3235,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-VN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3292,7 +3291,7 @@
                   <c:v>Tìm bảng</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Ghi chép ký lục</c:v>
+                  <c:v>Ghi chép và tổng hợp ký lục</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Đổi bảng</c:v>
@@ -3369,7 +3368,7 @@
                   <c:v>Tìm bảng</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Ghi chép ký lục</c:v>
+                  <c:v>Ghi chép và tổng hợp ký lục</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Đổi bảng</c:v>
@@ -3457,7 +3456,7 @@
                   <c:v>Tìm bảng</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Ghi chép ký lục</c:v>
+                  <c:v>Ghi chép và tổng hợp ký lục</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Đổi bảng</c:v>
@@ -3588,7 +3587,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-VN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3626,7 +3625,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-VN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2060977632"/>
@@ -3675,7 +3674,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-VN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2060993440"/>
@@ -3720,7 +3719,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-VN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2060988448"/>
@@ -3765,7 +3764,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-VN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2060984704"/>
@@ -3785,7 +3784,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.65627467483119251"/>
+          <c:y val="0.90724308770805029"/>
+          <c:w val="0.30016979038039387"/>
+          <c:h val="6.8427355999837805E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3811,7 +3819,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-VN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3841,7 +3849,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-VN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3930,7 +3938,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-VN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4013,7 +4021,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-VN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -4026,7 +4034,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4161,7 +4168,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-VN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4199,7 +4206,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-VN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1892987087"/>
@@ -4244,7 +4251,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-VN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1892999983"/>
@@ -4286,7 +4293,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-VN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7107,8 +7114,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2488406" y="3162301"/>
-          <a:ext cx="7207250" cy="5092700"/>
+          <a:off x="2841625" y="3162301"/>
+          <a:ext cx="8064500" cy="5092700"/>
           <a:chOff x="2832100" y="2971801"/>
           <a:chExt cx="8140700" cy="5092700"/>
         </a:xfrm>
@@ -7346,8 +7353,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>282575</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>67252</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7387,7 +7394,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7417,7 +7430,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Right Arrow 3"/>
+        <xdr:cNvPr id="4" name="Right Arrow 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7484,7 +7503,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Explosion 1 4"/>
+        <xdr:cNvPr id="5" name="Explosion 1 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -7891,40 +7916,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T17"/>
   <sheetViews>
     <sheetView topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C1" s="58">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C1" s="61">
         <v>2023</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58">
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61">
         <v>2024</v>
       </c>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-    </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C2">
         <v>4</v>
       </c>
@@ -7980,7 +8005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>123</v>
       </c>
@@ -8039,7 +8064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C4">
         <f>B3+C3</f>
         <v>126</v>
@@ -8113,37 +8138,37 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C6">
         <f>9.7/60</f>
         <v>0.16166666666666665</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C9" s="59">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C9" s="62">
         <v>2023</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="62">
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="65">
         <v>2024</v>
       </c>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C10" s="42" t="s">
         <v>74</v>
       </c>
@@ -8199,7 +8224,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>70</v>
       </c>
@@ -8258,7 +8283,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>69</v>
       </c>
@@ -8317,7 +8342,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>84</v>
       </c>
@@ -8394,7 +8419,7 @@
         <v>24.734999999999999</v>
       </c>
     </row>
-    <row r="17" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="19:19" x14ac:dyDescent="0.2">
       <c r="S17" s="44"/>
     </row>
   </sheetData>
@@ -8410,40 +8435,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:T17"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="R13" sqref="R13:T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C1" s="58">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C1" s="61">
         <v>2023</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58">
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61">
         <v>2024</v>
       </c>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-    </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C2">
         <v>4</v>
       </c>
@@ -8499,7 +8524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>123</v>
       </c>
@@ -8558,7 +8583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C4">
         <f>B3+C3</f>
         <v>126</v>
@@ -8632,31 +8657,31 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C9" s="59">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C9" s="62">
         <v>2023</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="62">
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="65">
         <v>2024</v>
       </c>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C10" s="42" t="s">
         <v>74</v>
       </c>
@@ -8712,7 +8737,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>70</v>
       </c>
@@ -8771,7 +8796,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>69</v>
       </c>
@@ -8830,7 +8855,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>84</v>
       </c>
@@ -8907,7 +8932,7 @@
         <v>61.599999999999994</v>
       </c>
     </row>
-    <row r="17" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="19:19" x14ac:dyDescent="0.2">
       <c r="S17" s="44"/>
     </row>
   </sheetData>
@@ -8923,29 +8948,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:W68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView topLeftCell="B15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="8.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="23" width="8.85546875" style="1" customWidth="1"/>
-    <col min="24" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="8.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="23" width="8.83203125" style="1" customWidth="1"/>
+    <col min="24" max="28" width="9.1640625" style="1"/>
+    <col min="29" max="29" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="19" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>32</v>
       </c>
@@ -8953,75 +8978,75 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="63" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B6" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="63" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="65"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="63" t="s">
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="68"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B7" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="65"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="68"/>
       <c r="L7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="66" t="s">
+      <c r="M7" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="68"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="71"/>
       <c r="W7" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="6" t="s">
         <v>33</v>
@@ -9054,7 +9079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="30"/>
       <c r="C9" s="12"/>
@@ -9079,7 +9104,7 @@
       <c r="V9" s="12"/>
       <c r="W9" s="26"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>35</v>
@@ -9103,13 +9128,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="L11" s="10"/>
       <c r="M11" s="11"/>
       <c r="W11" s="10"/>
     </row>
-    <row r="12" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>37</v>
       </c>
@@ -9141,7 +9166,7 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="30"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -9165,7 +9190,7 @@
       <c r="V13" s="12"/>
       <c r="W13" s="26"/>
     </row>
-    <row r="14" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
         <v>65</v>
       </c>
@@ -9181,7 +9206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="11"/>
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
@@ -9189,7 +9214,7 @@
       <c r="M15" s="11"/>
       <c r="W15" s="26"/>
     </row>
-    <row r="16" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13" t="s">
         <v>20</v>
       </c>
@@ -9223,12 +9248,12 @@
         <v>9.15</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B19" s="16" t="s">
         <v>22</v>
       </c>
@@ -9243,7 +9268,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
         <v>25</v>
       </c>
@@ -9262,7 +9287,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B21" s="16" t="s">
         <v>21</v>
       </c>
@@ -9280,7 +9305,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" s="16"/>
       <c r="F22" s="1">
         <f>F21/1000</f>
@@ -9290,7 +9315,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
@@ -9304,7 +9329,7 @@
         <v>442.06670000000003</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" s="18"/>
       <c r="C24" s="22" t="s">
         <v>8</v>
@@ -9348,7 +9373,7 @@
       </c>
       <c r="V24" s="46"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" s="17" t="s">
         <v>1</v>
       </c>
@@ -9405,7 +9430,7 @@
         <v>526.06670000000008</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" s="18" t="s">
         <v>2</v>
       </c>
@@ -9446,7 +9471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -9458,7 +9483,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="19"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E29" s="36" t="s">
         <v>56</v>
       </c>
@@ -9476,7 +9501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E30" s="40" t="s">
         <v>60</v>
       </c>
@@ -9487,7 +9512,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E31" s="1" t="s">
         <v>61</v>
       </c>
@@ -9499,7 +9524,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E32" s="34" t="s">
         <v>66</v>
       </c>
@@ -9510,7 +9535,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E33" s="1" t="s">
         <v>62</v>
       </c>
@@ -9518,7 +9543,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E34" s="1" t="s">
         <v>63</v>
       </c>
@@ -9529,7 +9554,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E35" s="1" t="s">
         <v>64</v>
       </c>
@@ -9538,7 +9563,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="36" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:16" x14ac:dyDescent="0.2">
       <c r="H36" s="1">
         <f>SUM(H33:H35)</f>
         <v>560</v>
@@ -9560,7 +9585,7 @@
         <v>470.9666666666667</v>
       </c>
     </row>
-    <row r="42" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:16" x14ac:dyDescent="0.2">
       <c r="H42" s="1" t="s">
         <v>88</v>
       </c>
@@ -9569,7 +9594,7 @@
       </c>
       <c r="N42" s="41"/>
     </row>
-    <row r="43" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F43" s="1" t="s">
         <v>87</v>
       </c>
@@ -9590,7 +9615,7 @@
       </c>
       <c r="P43" s="35"/>
     </row>
-    <row r="44" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:16" x14ac:dyDescent="0.2">
       <c r="G44" s="1" t="s">
         <v>62</v>
       </c>
@@ -9606,9 +9631,12 @@
         <f t="shared" ref="J44:J46" si="1">H44-I44</f>
         <v>1.458333333333333</v>
       </c>
-      <c r="P44" s="35"/>
-    </row>
-    <row r="45" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="P44" s="35">
+        <f>SUM(H33:H35)/12</f>
+        <v>46.666666666666664</v>
+      </c>
+    </row>
+    <row r="45" spans="5:16" x14ac:dyDescent="0.2">
       <c r="G45" s="1" t="s">
         <v>91</v>
       </c>
@@ -9626,7 +9654,7 @@
       </c>
       <c r="P45" s="35"/>
     </row>
-    <row r="46" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:16" x14ac:dyDescent="0.2">
       <c r="G46" s="1" t="s">
         <v>92</v>
       </c>
@@ -9643,7 +9671,7 @@
         <v>2.9166666666666661</v>
       </c>
     </row>
-    <row r="47" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F47" s="1" t="s">
         <v>93</v>
       </c>
@@ -9654,8 +9682,12 @@
       <c r="I47" s="1">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="48" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="P47" s="1">
+        <f>8/60*197</f>
+        <v>26.266666666666666</v>
+      </c>
+    </row>
+    <row r="48" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F48" s="1" t="s">
         <v>94</v>
       </c>
@@ -9664,11 +9696,11 @@
         <v>15.899999999999999</v>
       </c>
       <c r="I48" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="6:11" x14ac:dyDescent="0.25">
+        <f xml:space="preserve"> 0.25/60*F19</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="49" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F49" s="1" t="s">
         <v>95</v>
       </c>
@@ -9680,7 +9712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F50" s="1" t="s">
         <v>83</v>
       </c>
@@ -9691,7 +9723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F51" s="1" t="s">
         <v>96</v>
       </c>
@@ -9701,26 +9733,32 @@
       </c>
       <c r="I51" s="41">
         <f>SUM(I43:I50)</f>
-        <v>20.138888888888889</v>
-      </c>
-    </row>
-    <row r="54" spans="6:11" x14ac:dyDescent="0.25">
+        <v>20.763888888888889</v>
+      </c>
+    </row>
+    <row r="53" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="P53" s="1">
+        <f>H48-F31</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="54" spans="6:16" x14ac:dyDescent="0.2">
       <c r="I54" s="46"/>
     </row>
-    <row r="55" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:16" x14ac:dyDescent="0.2">
       <c r="I55" s="41">
         <f>H51-I51</f>
-        <v>40.483333333333334</v>
+        <v>39.858333333333334</v>
       </c>
       <c r="K55" s="1">
         <f>I55*12</f>
-        <v>485.8</v>
-      </c>
-    </row>
-    <row r="58" spans="6:11" x14ac:dyDescent="0.25">
+        <v>478.3</v>
+      </c>
+    </row>
+    <row r="58" spans="6:16" x14ac:dyDescent="0.2">
       <c r="G58" s="51"/>
     </row>
-    <row r="60" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F60" s="1" t="s">
         <v>62</v>
       </c>
@@ -9728,7 +9766,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="61" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F61" s="1" t="s">
         <v>91</v>
       </c>
@@ -9736,13 +9774,13 @@
         <v>1.6</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J61" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F62" s="1" t="s">
         <v>92</v>
       </c>
@@ -9750,7 +9788,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="63" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F63" s="1" t="s">
         <v>61</v>
       </c>
@@ -9759,51 +9797,51 @@
         <v>8.3999999999999986</v>
       </c>
     </row>
-    <row r="64" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F64" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G64" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F65" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G65" s="51">
         <f>8/60</f>
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="66" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F66" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G66" s="1">
         <f>3/60</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="67" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F67" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G67" s="1">
         <f>3/60</f>
         <v>0.05</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J67" s="1">
         <f>SUM(G59:G64) + J61*SUM(G65:G68)</f>
         <v>60.7</v>
       </c>
     </row>
-    <row r="68" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F68" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G68" s="51">
         <f>4/60</f>
@@ -9823,57 +9861,57 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:K9"/>
   <sheetViews>
-    <sheetView topLeftCell="F25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="57.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="61" x14ac:dyDescent="0.2">
       <c r="C3" s="48" t="s">
         <v>85</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" s="48" t="s">
         <v>86</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="I3" s="75" t="s">
-        <v>140</v>
+        <v>98</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>139</v>
       </c>
       <c r="J3">
         <v>60.6</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C4" s="48"/>
       <c r="D4" s="48"/>
       <c r="E4" s="48"/>
       <c r="F4" s="48">
         <v>0</v>
       </c>
-      <c r="I4" s="74" t="s">
-        <v>139</v>
+      <c r="I4" s="59" t="s">
+        <v>138</v>
       </c>
       <c r="J4">
         <v>25.6</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C5" s="48" t="s">
         <v>87</v>
       </c>
@@ -9889,9 +9927,9 @@
         <v>0.43234323432343236</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C6" s="48" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="D6" s="18">
         <v>15.899999999999999</v>
@@ -9904,9 +9942,9 @@
         <f>E6/$E$9</f>
         <v>0.69471947194719474</v>
       </c>
-      <c r="K6" s="73"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="58"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C7" s="48" t="s">
         <v>95</v>
       </c>
@@ -9922,7 +9960,7 @@
         <v>0.85973597359735976</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C8" s="48" t="s">
         <v>93</v>
       </c>
@@ -9938,9 +9976,9 @@
         <v>0.98349834983498352</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="48" t="s">
         <v>83</v>
@@ -9965,173 +10003,173 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C4:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="52.28515625" customWidth="1"/>
-    <col min="5" max="5" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.33203125" customWidth="1"/>
+    <col min="5" max="5" width="51.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C4" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="E4" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="F4" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="G4" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="48" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F5" s="55"/>
       <c r="G5" s="52"/>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F6" s="56"/>
       <c r="G6" s="53"/>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F7" s="56"/>
       <c r="G7" s="53"/>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F8" s="56"/>
       <c r="G8" s="53"/>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F9" s="56"/>
       <c r="G9" s="53"/>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F10" s="57"/>
       <c r="G10" s="53"/>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="53"/>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" t="s">
         <v>125</v>
       </c>
-      <c r="E11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>129</v>
       </c>
-      <c r="G11" s="53"/>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" s="53"/>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="53"/>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
+      <c r="G13" s="53"/>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="53"/>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F14" t="s">
-        <v>132</v>
-      </c>
       <c r="G14" s="54"/>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="52"/>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
         <v>134</v>
       </c>
-      <c r="E15" t="s">
-        <v>137</v>
-      </c>
-      <c r="G15" s="52"/>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>135</v>
       </c>
-      <c r="E16" t="s">
-        <v>136</v>
-      </c>
       <c r="G16" s="54"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C17">
         <v>5</v>
       </c>
       <c r="D17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="52"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
         <v>122</v>
       </c>
-      <c r="E17" t="s">
-        <v>121</v>
-      </c>
-      <c r="G17" s="52"/>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>123</v>
-      </c>
       <c r="E18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G18" s="54"/>
     </row>
@@ -10142,24 +10180,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:W39"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
-    <col min="3" max="23" width="8.85546875" style="1" customWidth="1"/>
-    <col min="24" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3" max="23" width="8.83203125" style="1" customWidth="1"/>
+    <col min="24" max="28" width="9.1640625" style="1"/>
+    <col min="29" max="29" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="19" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>40</v>
       </c>
@@ -10167,80 +10205,80 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="63" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="65"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="63" t="s">
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="68"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="74"/>
+      <c r="B7" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="65"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="68"/>
       <c r="L7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="66" t="s">
+      <c r="M7" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="68"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="71"/>
       <c r="W7" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="72" t="s">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="75" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -10274,8 +10312,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="73"/>
       <c r="B9" s="30"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -10299,8 +10337,8 @@
       <c r="V9" s="12"/>
       <c r="W9" s="26"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="73"/>
       <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
@@ -10323,14 +10361,14 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="73"/>
       <c r="L11" s="10"/>
       <c r="M11" s="11"/>
       <c r="W11" s="10"/>
     </row>
-    <row r="12" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
+    <row r="12" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="73"/>
       <c r="B12" s="9" t="s">
         <v>44</v>
       </c>
@@ -10362,8 +10400,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
+    <row r="13" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="73"/>
       <c r="B13" s="30"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -10387,8 +10425,8 @@
       <c r="V13" s="12"/>
       <c r="W13" s="26"/>
     </row>
-    <row r="14" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="70"/>
+    <row r="14" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="73"/>
       <c r="B14" s="9" t="s">
         <v>45</v>
       </c>
@@ -10420,8 +10458,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
+    <row r="15" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="74"/>
       <c r="B15" s="30"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -10445,8 +10483,8 @@
       <c r="V15" s="12"/>
       <c r="W15" s="26"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="72" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -10480,8 +10518,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="70"/>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="73"/>
       <c r="B17" s="30"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -10505,8 +10543,8 @@
       <c r="V17" s="33"/>
       <c r="W17" s="26"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="70"/>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="73"/>
       <c r="B18" s="2" t="s">
         <v>51</v>
       </c>
@@ -10529,14 +10567,14 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="73"/>
       <c r="L19" s="10"/>
       <c r="M19" s="11"/>
       <c r="W19" s="10"/>
     </row>
-    <row r="20" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
+    <row r="20" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="73"/>
       <c r="B20" s="9" t="s">
         <v>54</v>
       </c>
@@ -10568,8 +10606,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="70"/>
+    <row r="21" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="73"/>
       <c r="B21" s="30"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -10593,8 +10631,8 @@
       <c r="V21" s="12"/>
       <c r="W21" s="26"/>
     </row>
-    <row r="22" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="70"/>
+    <row r="22" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="73"/>
       <c r="B22" s="9" t="s">
         <v>45</v>
       </c>
@@ -10626,8 +10664,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="71"/>
+    <row r="23" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="74"/>
       <c r="B23" s="30"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -10651,7 +10689,7 @@
       <c r="V23" s="12"/>
       <c r="W23" s="26"/>
     </row>
-    <row r="24" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="13" t="s">
         <v>20</v>
       </c>
@@ -10685,12 +10723,12 @@
         <v>31.45</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B26" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B27" s="16" t="s">
         <v>22</v>
       </c>
@@ -10705,7 +10743,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B28" s="16" t="s">
         <v>25</v>
       </c>
@@ -10724,7 +10762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B29" s="16" t="s">
         <v>21</v>
       </c>
@@ -10742,7 +10780,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B30" s="16"/>
       <c r="F30" s="1">
         <f>F29/1000</f>
@@ -10752,7 +10790,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
@@ -10763,7 +10801,7 @@
       <c r="J31" s="23"/>
       <c r="K31" s="23"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B32" s="18"/>
       <c r="C32" s="22" t="s">
         <v>8</v>
@@ -10802,7 +10840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="17" t="s">
         <v>1</v>
       </c>
@@ -10855,7 +10893,7 @@
         <v>1.1129250000000004</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="18" t="s">
         <v>2</v>
       </c>
@@ -10896,7 +10934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -10908,7 +10946,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="19"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="36" t="s">
         <v>56</v>
       </c>
@@ -10920,7 +10958,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
     </row>
